--- a/data/hotels_by_city/Denver/Denver_shard_31.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_31.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="504">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33514-d225457-Reviews-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
   </si>
   <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Comfort-Suites-Lakewood-Denver.h151009.Hotel-Information?chkin=4%2F16%2F2018&amp;chkout=4%2F17%2F2018&amp;rm1=a2&amp;regionId=178254&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1522715920664&amp;vip=false&amp;c=2fddd719-2bfe-4e3a-b0d2-180a520bf50e&amp;mctc=9&amp;exp_dp=84.15&amp;exp_ts=1522715921557&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,1404 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r586456671-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>33514</t>
+  </si>
+  <si>
+    <t>225457</t>
+  </si>
+  <si>
+    <t>586456671</t>
+  </si>
+  <si>
+    <t>06/10/2018</t>
+  </si>
+  <si>
+    <t>Superior</t>
+  </si>
+  <si>
+    <t>I recently experienced an issue with my room and the staff was MORE than accommodating. I sincerely appreciate the ability to approach the staff without hestation. I look forward to returning. Also, this particular location is near; the highway, frontage road, grocery stores, restaurants, etc.Thank YouMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Bina R, General Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded June 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2018</t>
+  </si>
+  <si>
+    <t>I recently experienced an issue with my room and the staff was MORE than accommodating. I sincerely appreciate the ability to approach the staff without hestation. I look forward to returning. Also, this particular location is near; the highway, frontage road, grocery stores, restaurants, etc.Thank YouMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r582067839-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>582067839</t>
+  </si>
+  <si>
+    <t>05/22/2018</t>
+  </si>
+  <si>
+    <t>Rude front desk, run down but clean.</t>
+  </si>
+  <si>
+    <t>Stayed for 5 days. The hotel itself is VERY basic. It is showing its age with peeling paint, and our room smelled like stale smoke. The breakfast could have been a lot better when we compare it to places like the Holiday Inn or Best Western. The reason it is getting three stars instead of two is that the housekeeping staff were excellent and kept this hotel very very clean. There were three different school groups staying at the hotel and when they were noisy and rowdy and I called the front desk they basically told me that there was nothing they could do! Pounding on the walls and slamming doors all night is not what I signed up for. Won't be staying there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Bina R, General Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded May 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2018</t>
+  </si>
+  <si>
+    <t>Stayed for 5 days. The hotel itself is VERY basic. It is showing its age with peeling paint, and our room smelled like stale smoke. The breakfast could have been a lot better when we compare it to places like the Holiday Inn or Best Western. The reason it is getting three stars instead of two is that the housekeeping staff were excellent and kept this hotel very very clean. There were three different school groups staying at the hotel and when they were noisy and rowdy and I called the front desk they basically told me that there was nothing they could do! Pounding on the walls and slamming doors all night is not what I signed up for. Won't be staying there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r581320784-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>581320784</t>
+  </si>
+  <si>
+    <t>05/19/2018</t>
+  </si>
+  <si>
+    <t>something</t>
+  </si>
+  <si>
+    <t>had to cancel  my reservation for this saturday because the event i was going to was cancel. try to get my reward points but the manager refuse to . i didnt know about the event being cancel until the day of my stay   plus when i made my reservation they told me i had the day of the 19th before 4pm to cancel my room. i though this was a good place to  now i thing it sucks now i lost about 30,00 points hope the manager is happy losting a customer.. they suckMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Bina R, General Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded May 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 20, 2018</t>
+  </si>
+  <si>
+    <t>had to cancel  my reservation for this saturday because the event i was going to was cancel. try to get my reward points but the manager refuse to . i didnt know about the event being cancel until the day of my stay   plus when i made my reservation they told me i had the day of the 19th before 4pm to cancel my room. i though this was a good place to  now i thing it sucks now i lost about 30,00 points hope the manager is happy losting a customer.. they suckMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r573426975-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>573426975</t>
+  </si>
+  <si>
+    <t>04/15/2018</t>
+  </si>
+  <si>
+    <t>Quiet and comfortable with a great breakfast</t>
+  </si>
+  <si>
+    <t>Although undergoing minor renovations the hotel was quiet and the rooms are certainly very comfortable.  The breakfast includes hot items and coffee is generally available throughout the day. Located a short distance east of busy S. Wadsworth Blvd. the hotel was surprisingly quiet.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Bina R, General Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded April 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2018</t>
+  </si>
+  <si>
+    <t>Although undergoing minor renovations the hotel was quiet and the rooms are certainly very comfortable.  The breakfast includes hot items and coffee is generally available throughout the day. Located a short distance east of busy S. Wadsworth Blvd. the hotel was surprisingly quiet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r572214276-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>572214276</t>
+  </si>
+  <si>
+    <t>04/09/2018</t>
+  </si>
+  <si>
+    <t>Everything was ok.</t>
+  </si>
+  <si>
+    <t>Easy check in. Good location wish there was a convenient store closer. Luz at the front desk was great. Did not like Fox news on in the breakfast area. Left a message to see if it could be changed. Also to see if I could get my t.v. to work in my room never heard back I was here 13 nights. On the fourth day I checked back. t.v. got fixed.  The exercise area is very limited. I think since this is a legal cannabis state people must partake in their rooms. The staff was constantly using heavy perfumed agents to fumigate rooms. My allergies were awful if you have allergies do not stay here. The breakfast was the same two things over and over. Which is fine for short stays. There seemed to be really long periods with nobody at the front desk. I called several times never to have calls answered.  MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Bina R, General Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded April 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2018</t>
+  </si>
+  <si>
+    <t>Easy check in. Good location wish there was a convenient store closer. Luz at the front desk was great. Did not like Fox news on in the breakfast area. Left a message to see if it could be changed. Also to see if I could get my t.v. to work in my room never heard back I was here 13 nights. On the fourth day I checked back. t.v. got fixed.  The exercise area is very limited. I think since this is a legal cannabis state people must partake in their rooms. The staff was constantly using heavy perfumed agents to fumigate rooms. My allergies were awful if you have allergies do not stay here. The breakfast was the same two things over and over. Which is fine for short stays. There seemed to be really long periods with nobody at the front desk. I called several times never to have calls answered.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r552123334-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>552123334</t>
+  </si>
+  <si>
+    <t>01/06/2018</t>
+  </si>
+  <si>
+    <t>Fantastic Stay!</t>
+  </si>
+  <si>
+    <t>The staff was amazing and friendly. The breakfast was fresh and delicious. The rooms were large with plenty of amenities. All of our needs were taken care of. Definitely going to be coming back to this hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Bina R, General Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded January 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 8, 2018</t>
+  </si>
+  <si>
+    <t>The staff was amazing and friendly. The breakfast was fresh and delicious. The rooms were large with plenty of amenities. All of our needs were taken care of. Definitely going to be coming back to this hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r548137057-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>548137057</t>
+  </si>
+  <si>
+    <t>12/19/2017</t>
+  </si>
+  <si>
+    <t>clean room, great staff</t>
+  </si>
+  <si>
+    <t>We arrived here after a long day of travel. The check in staff were very helpful and courteous. A high point nowadays. Room was clean with plenty of room. Rooms were updated  and fresh. Overall very happy and will definitely  stay again. The location is quiet central to many attractions.MoreShow less</t>
+  </si>
+  <si>
+    <t>Bina R, General Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded December 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 22, 2017</t>
+  </si>
+  <si>
+    <t>We arrived here after a long day of travel. The check in staff were very helpful and courteous. A high point nowadays. Room was clean with plenty of room. Rooms were updated  and fresh. Overall very happy and will definitely  stay again. The location is quiet central to many attractions.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r546306333-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>546306333</t>
+  </si>
+  <si>
+    <t>12/09/2017</t>
+  </si>
+  <si>
+    <t>Great for the price</t>
+  </si>
+  <si>
+    <t>Even though they stuck us in the last room where they just stained the door and it was still wet and we got it on our skin a few times, the place is good for the price.  Hot and cold breakfast and a pool that is as warm as a hot tub though very small.  Our room had holes in the carpet and broken tile but it was large and has other amenities so the good evened out the bad.MoreShow less</t>
+  </si>
+  <si>
+    <t>Bina R, General Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded December 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 11, 2017</t>
+  </si>
+  <si>
+    <t>Even though they stuck us in the last room where they just stained the door and it was still wet and we got it on our skin a few times, the place is good for the price.  Hot and cold breakfast and a pool that is as warm as a hot tub though very small.  Our room had holes in the carpet and broken tile but it was large and has other amenities so the good evened out the bad.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r538338342-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>538338342</t>
+  </si>
+  <si>
+    <t>11/04/2017</t>
+  </si>
+  <si>
+    <t>Affordable hotel with some issues</t>
+  </si>
+  <si>
+    <t>Originally wrote this as a three star review but it's more like 3.5.  I'll round up, why not?
+Stayed here one night due to a morning business meeting.  Booked the hotel because the pool and hottub area looked the best out of surrounding hotels.  Arrived to find out it was closed for renovation.  Luz at the front desk was super apologetic and offered to refund my reservation.  She was so nice I decided to stay anyways.  
+My original set of keys did not work but that was quickly resolved by the again very apologetic Luz.  My first floor room was clean though the carpet could stand some refreshing.  Layout is a bit weird but nothing you can't get used to.  Sink had some problems draining quickly.
+The bed was clean and phenomenal.  Easy to get a good night's sleep. Breakfast the next morning was a good mix of hot sit down foods and grab and go pastries.  I had an appointment so I took advantage of the second.  Shockingly good danish and wish I had grabbed another.  
+Area around the hotel is nice enough.  Don't have to drive too far to find whatever you might need.  No reason to feel like the area is "sketchy" 
+In summary:  This hotel is a good value (especially considering it's a room with a living room area) that could use some updates.  Front desk staff was great, and hopefully the pool and hottub renovations...Originally wrote this as a three star review but it's more like 3.5.  I'll round up, why not?Stayed here one night due to a morning business meeting.  Booked the hotel because the pool and hottub area looked the best out of surrounding hotels.  Arrived to find out it was closed for renovation.  Luz at the front desk was super apologetic and offered to refund my reservation.  She was so nice I decided to stay anyways.  My original set of keys did not work but that was quickly resolved by the again very apologetic Luz.  My first floor room was clean though the carpet could stand some refreshing.  Layout is a bit weird but nothing you can't get used to.  Sink had some problems draining quickly.The bed was clean and phenomenal.  Easy to get a good night's sleep. Breakfast the next morning was a good mix of hot sit down foods and grab and go pastries.  I had an appointment so I took advantage of the second.  Shockingly good danish and wish I had grabbed another.  Area around the hotel is nice enough.  Don't have to drive too far to find whatever you might need.  No reason to feel like the area is "sketchy" In summary:  This hotel is a good value (especially considering it's a room with a living room area) that could use some updates.  Front desk staff was great, and hopefully the pool and hottub renovations fix previous problems.  I'll stay again if I'm ever in the area again and look forward to writing a higher star review once the renovation is done.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Bina R, General Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded November 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 5, 2017</t>
+  </si>
+  <si>
+    <t>Originally wrote this as a three star review but it's more like 3.5.  I'll round up, why not?
+Stayed here one night due to a morning business meeting.  Booked the hotel because the pool and hottub area looked the best out of surrounding hotels.  Arrived to find out it was closed for renovation.  Luz at the front desk was super apologetic and offered to refund my reservation.  She was so nice I decided to stay anyways.  
+My original set of keys did not work but that was quickly resolved by the again very apologetic Luz.  My first floor room was clean though the carpet could stand some refreshing.  Layout is a bit weird but nothing you can't get used to.  Sink had some problems draining quickly.
+The bed was clean and phenomenal.  Easy to get a good night's sleep. Breakfast the next morning was a good mix of hot sit down foods and grab and go pastries.  I had an appointment so I took advantage of the second.  Shockingly good danish and wish I had grabbed another.  
+Area around the hotel is nice enough.  Don't have to drive too far to find whatever you might need.  No reason to feel like the area is "sketchy" 
+In summary:  This hotel is a good value (especially considering it's a room with a living room area) that could use some updates.  Front desk staff was great, and hopefully the pool and hottub renovations...Originally wrote this as a three star review but it's more like 3.5.  I'll round up, why not?Stayed here one night due to a morning business meeting.  Booked the hotel because the pool and hottub area looked the best out of surrounding hotels.  Arrived to find out it was closed for renovation.  Luz at the front desk was super apologetic and offered to refund my reservation.  She was so nice I decided to stay anyways.  My original set of keys did not work but that was quickly resolved by the again very apologetic Luz.  My first floor room was clean though the carpet could stand some refreshing.  Layout is a bit weird but nothing you can't get used to.  Sink had some problems draining quickly.The bed was clean and phenomenal.  Easy to get a good night's sleep. Breakfast the next morning was a good mix of hot sit down foods and grab and go pastries.  I had an appointment so I took advantage of the second.  Shockingly good danish and wish I had grabbed another.  Area around the hotel is nice enough.  Don't have to drive too far to find whatever you might need.  No reason to feel like the area is "sketchy" In summary:  This hotel is a good value (especially considering it's a room with a living room area) that could use some updates.  Front desk staff was great, and hopefully the pool and hottub renovations fix previous problems.  I'll stay again if I'm ever in the area again and look forward to writing a higher star review once the renovation is done.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r534667378-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>534667378</t>
+  </si>
+  <si>
+    <t>10/20/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Hotel! </t>
+  </si>
+  <si>
+    <t>The hotel was in a great location. Close to everything. Good breakfast, several choices. They also had different hot items to choose from each day &amp; tasted good. The staff was nice &amp; helpful, the room was clean &amp; very nice. Excellent for the money. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Bina R, General Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded October 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 22, 2017</t>
+  </si>
+  <si>
+    <t>The hotel was in a great location. Close to everything. Good breakfast, several choices. They also had different hot items to choose from each day &amp; tasted good. The staff was nice &amp; helpful, the room was clean &amp; very nice. Excellent for the money. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r533249487-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>533249487</t>
+  </si>
+  <si>
+    <t>10/15/2017</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>Great place to stay. We had a little hiccup at check-in...not sure if she was distracted or what but gave us a key with one room number written on the back, but our assigned room was actually a completely different room...  I was a bit frustrated because we had just spent 6 hrs on the road, stood in line for quite some time to check in, and then had to stand in line for another lengthy wait to get the right room number. And no apology, which I thought was a bit rude...  BUT! Having said that, the other staff were very friendly.  We had a very comfortable and nice room, and my husband kept thinking I was lying to him on what I paid for the room....so that says we had great value for what we paid.Room was nicely appointed, comfortable, and clean.  Breakfast was good, and she kept the food area full and spotless. Pool was nice. It's not big, but we usually had the place to ourselves.If staying here, I'd recommend the 3rd floor, though.  We had a herd of large and small elephants above us both nights we were there.  We enjoyed our stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Bina R, General Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded October 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 16, 2017</t>
+  </si>
+  <si>
+    <t>Great place to stay. We had a little hiccup at check-in...not sure if she was distracted or what but gave us a key with one room number written on the back, but our assigned room was actually a completely different room...  I was a bit frustrated because we had just spent 6 hrs on the road, stood in line for quite some time to check in, and then had to stand in line for another lengthy wait to get the right room number. And no apology, which I thought was a bit rude...  BUT! Having said that, the other staff were very friendly.  We had a very comfortable and nice room, and my husband kept thinking I was lying to him on what I paid for the room....so that says we had great value for what we paid.Room was nicely appointed, comfortable, and clean.  Breakfast was good, and she kept the food area full and spotless. Pool was nice. It's not big, but we usually had the place to ourselves.If staying here, I'd recommend the 3rd floor, though.  We had a herd of large and small elephants above us both nights we were there.  We enjoyed our stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r530794257-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>530794257</t>
+  </si>
+  <si>
+    <t>10/07/2017</t>
+  </si>
+  <si>
+    <t>Good hotel</t>
+  </si>
+  <si>
+    <t>Clean room- good hot breakfast-staff friendly.  Only suggestion is when at pool/hot tub room people can look in when getting breakfast- put blinds up for privacy. Uncomfortable having people stare at you when enjoying an early morning swimMoreShow less</t>
+  </si>
+  <si>
+    <t>Bina R, General Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded October 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2017</t>
+  </si>
+  <si>
+    <t>Clean room- good hot breakfast-staff friendly.  Only suggestion is when at pool/hot tub room people can look in when getting breakfast- put blinds up for privacy. Uncomfortable having people stare at you when enjoying an early morning swimMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r525730656-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>525730656</t>
+  </si>
+  <si>
+    <t>09/19/2017</t>
+  </si>
+  <si>
+    <t>Very good, convenient stay + good value</t>
+  </si>
+  <si>
+    <t>We stayed at the Comfort Suites in Lakewood ahead of a Utah road trip.  Our stay was comfortable and convenient with no complaints at all.  Check in was easy and staff helpful.  The free breakfast was very good with many hot and cold options.  Would consider this lodging option again if we are in the Lakewood area in the future.  Recommended!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Bina R, General Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded September 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 20, 2017</t>
+  </si>
+  <si>
+    <t>We stayed at the Comfort Suites in Lakewood ahead of a Utah road trip.  Our stay was comfortable and convenient with no complaints at all.  Check in was easy and staff helpful.  The free breakfast was very good with many hot and cold options.  Would consider this lodging option again if we are in the Lakewood area in the future.  Recommended!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r522085566-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>522085566</t>
+  </si>
+  <si>
+    <t>09/06/2017</t>
+  </si>
+  <si>
+    <t>Very good</t>
+  </si>
+  <si>
+    <t>Room was great. It was very clean and the staff was friendly. The breakfast was good. They even have handicap accessible pool supports. The only suggestion that have is in the pool area the ground was slick and I almost fell into the pool. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Bina R, General Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded September 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2017</t>
+  </si>
+  <si>
+    <t>Room was great. It was very clean and the staff was friendly. The breakfast was good. They even have handicap accessible pool supports. The only suggestion that have is in the pool area the ground was slick and I almost fell into the pool. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r520043647-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>520043647</t>
+  </si>
+  <si>
+    <t>08/31/2017</t>
+  </si>
+  <si>
+    <t>Comfortable, Affordable Stay Convenient to Denver</t>
+  </si>
+  <si>
+    <t>Our family stayed here for 4 days in August during the Denver part of our trip out west.  Hotels in/near downtown Denver were much more expensive, so we chose this hotel based, in part, on its affordability and proximity to all of the activities we had planned.  We were not disappointed.  It was a short drive to downtown Denver, and was situated very close to Red Rocks as well.  
+We were pleased with our room as well. We had a suite, which was perfect for two adults and two younger boys.  There was a door that separated the bedroom from the rest of the suite, which was nice as it allowed for some privacy.  We were happy to have the extra space and the pullout couch as well.  Two televisions are provided for each sleeping area.
+One minor complaint about the room - the sink is not in the bathroom - it's near the entrance in the portion of the room where the pullout sofa was.  On one hand, it was nice to be able to use the sink while somebody else was occupying the bathroom, but with somebody sleeping on the pullout sofa, it wasn't always convenient.  Very minor point that probably wouldn't be an issue when traveling with fewer people.
+Did not use the pool, so cannot comment on that, but we appreciated the free breakfast (with waffles) and ate at the hotel every morning before venturing out....Our family stayed here for 4 days in August during the Denver part of our trip out west.  Hotels in/near downtown Denver were much more expensive, so we chose this hotel based, in part, on its affordability and proximity to all of the activities we had planned.  We were not disappointed.  It was a short drive to downtown Denver, and was situated very close to Red Rocks as well.  We were pleased with our room as well. We had a suite, which was perfect for two adults and two younger boys.  There was a door that separated the bedroom from the rest of the suite, which was nice as it allowed for some privacy.  We were happy to have the extra space and the pullout couch as well.  Two televisions are provided for each sleeping area.One minor complaint about the room - the sink is not in the bathroom - it's near the entrance in the portion of the room where the pullout sofa was.  On one hand, it was nice to be able to use the sink while somebody else was occupying the bathroom, but with somebody sleeping on the pullout sofa, it wasn't always convenient.  Very minor point that probably wouldn't be an issue when traveling with fewer people.Did not use the pool, so cannot comment on that, but we appreciated the free breakfast (with waffles) and ate at the hotel every morning before venturing out.In summary - we had a clean, comfortable room that was conveniently located and quite affordable.  I would definitely stay here again if I find myself back in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Bina R, General Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded September 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 3, 2017</t>
+  </si>
+  <si>
+    <t>Our family stayed here for 4 days in August during the Denver part of our trip out west.  Hotels in/near downtown Denver were much more expensive, so we chose this hotel based, in part, on its affordability and proximity to all of the activities we had planned.  We were not disappointed.  It was a short drive to downtown Denver, and was situated very close to Red Rocks as well.  
+We were pleased with our room as well. We had a suite, which was perfect for two adults and two younger boys.  There was a door that separated the bedroom from the rest of the suite, which was nice as it allowed for some privacy.  We were happy to have the extra space and the pullout couch as well.  Two televisions are provided for each sleeping area.
+One minor complaint about the room - the sink is not in the bathroom - it's near the entrance in the portion of the room where the pullout sofa was.  On one hand, it was nice to be able to use the sink while somebody else was occupying the bathroom, but with somebody sleeping on the pullout sofa, it wasn't always convenient.  Very minor point that probably wouldn't be an issue when traveling with fewer people.
+Did not use the pool, so cannot comment on that, but we appreciated the free breakfast (with waffles) and ate at the hotel every morning before venturing out....Our family stayed here for 4 days in August during the Denver part of our trip out west.  Hotels in/near downtown Denver were much more expensive, so we chose this hotel based, in part, on its affordability and proximity to all of the activities we had planned.  We were not disappointed.  It was a short drive to downtown Denver, and was situated very close to Red Rocks as well.  We were pleased with our room as well. We had a suite, which was perfect for two adults and two younger boys.  There was a door that separated the bedroom from the rest of the suite, which was nice as it allowed for some privacy.  We were happy to have the extra space and the pullout couch as well.  Two televisions are provided for each sleeping area.One minor complaint about the room - the sink is not in the bathroom - it's near the entrance in the portion of the room where the pullout sofa was.  On one hand, it was nice to be able to use the sink while somebody else was occupying the bathroom, but with somebody sleeping on the pullout sofa, it wasn't always convenient.  Very minor point that probably wouldn't be an issue when traveling with fewer people.Did not use the pool, so cannot comment on that, but we appreciated the free breakfast (with waffles) and ate at the hotel every morning before venturing out.In summary - we had a clean, comfortable room that was conveniently located and quite affordable.  I would definitely stay here again if I find myself back in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r508267744-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>508267744</t>
+  </si>
+  <si>
+    <t>08/02/2017</t>
+  </si>
+  <si>
+    <t>Don't stay here!  It's a sorry excuse</t>
+  </si>
+  <si>
+    <t>We booked a room 10 days in advance, in the request box we requested a quiet room on the highest floor.  When we got to town, we called and reconfirmed the quiet room on an upper floor.  No problem, we were told, did we want the second or third floor?  We requested third.  When we arrived and checked in, it seems the only room available was on the first floor!  So sorry.  When we asked what was the story, oh, well,so sorry, we are full (so is the whole area for some meeting).  Suddenly, there is a third floor room, but it ends up it is right next to the elevator and vibrates the walls and floor of the room every time the elevator moves!  Call down to the front desk, oh, well, the first floor room is now gone, sorry.  When we asked to speak to the manager, she's busy, sorry.This is a sorry excuse for a hotel. We will certainly never stay here, sorry.MoreShow less</t>
+  </si>
+  <si>
+    <t>Bina R, General Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded August 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 4, 2017</t>
+  </si>
+  <si>
+    <t>We booked a room 10 days in advance, in the request box we requested a quiet room on the highest floor.  When we got to town, we called and reconfirmed the quiet room on an upper floor.  No problem, we were told, did we want the second or third floor?  We requested third.  When we arrived and checked in, it seems the only room available was on the first floor!  So sorry.  When we asked what was the story, oh, well,so sorry, we are full (so is the whole area for some meeting).  Suddenly, there is a third floor room, but it ends up it is right next to the elevator and vibrates the walls and floor of the room every time the elevator moves!  Call down to the front desk, oh, well, the first floor room is now gone, sorry.  When we asked to speak to the manager, she's busy, sorry.This is a sorry excuse for a hotel. We will certainly never stay here, sorry.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r497151594-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>497151594</t>
+  </si>
+  <si>
+    <t>06/29/2017</t>
+  </si>
+  <si>
+    <t>Nice room, clean, comfy beds</t>
+  </si>
+  <si>
+    <t>Nice hotel in a good location. It was clean and well cared for. The beds were comfy and it was fairly quiet. My only complaint is that when we came down to breakfast at about 8:30-9:00 am on Saturday morning, they were out of hot food and there was no where to sit. My understanding was that breakfast was supposed to be available until 9:30. We grabbed some pastries to take up to our room, but there weren't many of those left either. My son tried to get a cup of orange juice, but it was practically just water. So we ended up going to McDonald's for breakfast. But other than the lack of breakfast, it was a great stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Bina R, General Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded July 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2017</t>
+  </si>
+  <si>
+    <t>Nice hotel in a good location. It was clean and well cared for. The beds were comfy and it was fairly quiet. My only complaint is that when we came down to breakfast at about 8:30-9:00 am on Saturday morning, they were out of hot food and there was no where to sit. My understanding was that breakfast was supposed to be available until 9:30. We grabbed some pastries to take up to our room, but there weren't many of those left either. My son tried to get a cup of orange juice, but it was practically just water. So we ended up going to McDonald's for breakfast. But other than the lack of breakfast, it was a great stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r496227458-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>496227458</t>
+  </si>
+  <si>
+    <t>06/26/2017</t>
+  </si>
+  <si>
+    <t>Chlorine on first floor is overpowering!</t>
+  </si>
+  <si>
+    <t>Room on the first floor aggravated my asthma. Between the chlorine from the pool and the supposedly smoke free room (which smelled musty like stale smoke) I was having a hard time breathing. Housekeeping neglected our room on the second night- ran out of tissues and t.paper, not to mention clean towels. Shared concerns with the desk clerk on duty and received a half hearted apology. Unfortunately we will not be returning to this location.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r486215700-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>486215700</t>
+  </si>
+  <si>
+    <t>05/21/2017</t>
+  </si>
+  <si>
+    <t>Good Stay</t>
+  </si>
+  <si>
+    <t>The lobby area is nice. Good breakfast. Our room was clean and comfortable. We will be staying here again. The pool looked inviting though we did not swim. Staff was friendly and helpful. No complaints from this stay!I should add that it is located close to Red rocks and several other parks!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Tim A, General Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded May 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 25, 2017</t>
+  </si>
+  <si>
+    <t>The lobby area is nice. Good breakfast. Our room was clean and comfortable. We will be staying here again. The pool looked inviting though we did not swim. Staff was friendly and helpful. No complaints from this stay!I should add that it is located close to Red rocks and several other parks!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r485466689-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>485466689</t>
+  </si>
+  <si>
+    <t>05/18/2017</t>
+  </si>
+  <si>
+    <t>Wonderful Suite, Staff, and Breakfast</t>
+  </si>
+  <si>
+    <t>I stayed one weeknight at this property and was very impressed with the room:  very clean, spacious, two flat screen TVs, refrigerator/microwave, and decent TV channel availability.  The morning breakfast was one of the best hotel breakfasts I've experienced - many fresh choices.  Staff were helpful and courteous.  This hotel ranks in the TOP 5% of places I have stayed over the years.  Stay here!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>I stayed one weeknight at this property and was very impressed with the room:  very clean, spacious, two flat screen TVs, refrigerator/microwave, and decent TV channel availability.  The morning breakfast was one of the best hotel breakfasts I've experienced - many fresh choices.  Staff were helpful and courteous.  This hotel ranks in the TOP 5% of places I have stayed over the years.  Stay here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r477133700-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>477133700</t>
+  </si>
+  <si>
+    <t>04/19/2017</t>
+  </si>
+  <si>
+    <t>Wonderful Stay</t>
+  </si>
+  <si>
+    <t>I had a great stay at this property. The service was excellent. Everything was clean and comfortable. The breakfast was one of the best I've had at a hotel. The location was perfect. About an hour away from Rocky Mt. National Park and Garden of the Gods. Twenty minutes to Red Rocks. And close to shopping and eating (check out the Old Chicago pizza place - great food and delicious beer). I highly recommend you stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tim A, Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded April 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 20, 2017</t>
+  </si>
+  <si>
+    <t>I had a great stay at this property. The service was excellent. Everything was clean and comfortable. The breakfast was one of the best I've had at a hotel. The location was perfect. About an hour away from Rocky Mt. National Park and Garden of the Gods. Twenty minutes to Red Rocks. And close to shopping and eating (check out the Old Chicago pizza place - great food and delicious beer). I highly recommend you stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r472806295-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>472806295</t>
+  </si>
+  <si>
+    <t>04/04/2017</t>
+  </si>
+  <si>
+    <t>Our Favorite Hotel</t>
+  </si>
+  <si>
+    <t>I love this hotel! The rooms are big and clean. The breakfast has plenty of choices and is delicious. Dawn (front desk supervisor) was amazing and very friendly and accommodating, she made sure everything was to our liking and when we had issues with a few kids (not hotel guests and they were not supposed to be there) being rude and loud in the pool area she handled the situation promptly and professionally. We have to come to Boulder once a week and this is the only hotel we want to stay at. The ONLY complaint I have is that there was WAY TO MUCH chlorine in the hot tub and I had to get out because the fumes burned my eyes. Thank you so much Comfort Suites Staff for making my medical diagnosis and treatment that much easier to handle. MoreShow less</t>
+  </si>
+  <si>
+    <t>Tim A, Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded April 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2017</t>
+  </si>
+  <si>
+    <t>I love this hotel! The rooms are big and clean. The breakfast has plenty of choices and is delicious. Dawn (front desk supervisor) was amazing and very friendly and accommodating, she made sure everything was to our liking and when we had issues with a few kids (not hotel guests and they were not supposed to be there) being rude and loud in the pool area she handled the situation promptly and professionally. We have to come to Boulder once a week and this is the only hotel we want to stay at. The ONLY complaint I have is that there was WAY TO MUCH chlorine in the hot tub and I had to get out because the fumes burned my eyes. Thank you so much Comfort Suites Staff for making my medical diagnosis and treatment that much easier to handle. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r447650783-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>447650783</t>
+  </si>
+  <si>
+    <t>12/29/2016</t>
+  </si>
+  <si>
+    <t>Great night in Denver</t>
+  </si>
+  <si>
+    <t>I reviewed the Tripadviser reviews and the Comfort Suites Lakewood location was a perfect fit for me and my wife.  Maybe if all hotels were this nice I might not have retired after 30 years as a "road warrier".  I've stayed in my share of so-so hotels but all the details are fresh and new here!</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r442403641-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>442403641</t>
+  </si>
+  <si>
+    <t>12/06/2016</t>
+  </si>
+  <si>
+    <t>A first rate mid-tier facility!</t>
+  </si>
+  <si>
+    <t>We've stayed at most of the many hotels in this area. There is none better. The rooms are truly suites. The separate "sitting room/living room" is LARGE with a sleeper sofa and chair. It has its own flat screen TV in addition to the one in the bedroom area. The "dorm style" refrigerator is new and the interior is well laid out with a small freezer space. It is located in the "bar serving" area that has its own sink and overhead microwave leaving the surface area free and providing overhead storage. I stayed in an old "Amerisuites" facility for 3 weeks on a job transfer. I wished I had this kind of room. A business person could comfortably stay here for a more extended time and not feel cramped. The beds were new and comfortable. The entire facility is fairly new and well appointed for its price point. Breakfast was exceptionally good with small cheese omelets with green chili to pour over them. The blueberry muffins were very good and moist. The location is convenient to everywhere in the SW metro Denver area with many restaurants and shopping close by. I am a VERY critical traveler and hard to please. This facility will not disappoint.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>We've stayed at most of the many hotels in this area. There is none better. The rooms are truly suites. The separate "sitting room/living room" is LARGE with a sleeper sofa and chair. It has its own flat screen TV in addition to the one in the bedroom area. The "dorm style" refrigerator is new and the interior is well laid out with a small freezer space. It is located in the "bar serving" area that has its own sink and overhead microwave leaving the surface area free and providing overhead storage. I stayed in an old "Amerisuites" facility for 3 weeks on a job transfer. I wished I had this kind of room. A business person could comfortably stay here for a more extended time and not feel cramped. The beds were new and comfortable. The entire facility is fairly new and well appointed for its price point. Breakfast was exceptionally good with small cheese omelets with green chili to pour over them. The blueberry muffins were very good and moist. The location is convenient to everywhere in the SW metro Denver area with many restaurants and shopping close by. I am a VERY critical traveler and hard to please. This facility will not disappoint.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r432488555-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>432488555</t>
+  </si>
+  <si>
+    <t>10/28/2016</t>
+  </si>
+  <si>
+    <t>Exceeded My Expectations</t>
+  </si>
+  <si>
+    <t>I came for a 2-day stay and checked in during the late afternoon 10/26. The girl at the desk was friendly and helpful. My room (I believe it was the standard King) exceeded my expectations. It was very clean, everything (except the hair dryer that I wasn't really planning on using anyway) worked as it should, and it was a comfortable size. There was a tv in the sitting area and by the bed (I'm not sure how this would work out with a larger group as there is no door separating the rooms/noise). The hotel overall was fairly quiet despite the parking lot being filled with cars by the time I came back later in the evening. I parked in the back, which has easy access into the building through the breakfast area. I ended up preferring this since I could see my car from my room. The only downside is there wasn't much of a view. The breakfast was not bad at all. Definitely something to hold you over until lunch at least. If you're a picky eater it may be below your standards. 
+QUICK BIT ON THE LOCATION: Wadsworth (the main street in front of the hotel) is very busy throughout the day, and especially during rush hour. During my stay here there was a lot of construction on the road, which made traffic even more congested. Most of the construction started about a mile away from...I came for a 2-day stay and checked in during the late afternoon 10/26. The girl at the desk was friendly and helpful. My room (I believe it was the standard King) exceeded my expectations. It was very clean, everything (except the hair dryer that I wasn't really planning on using anyway) worked as it should, and it was a comfortable size. There was a tv in the sitting area and by the bed (I'm not sure how this would work out with a larger group as there is no door separating the rooms/noise). The hotel overall was fairly quiet despite the parking lot being filled with cars by the time I came back later in the evening. I parked in the back, which has easy access into the building through the breakfast area. I ended up preferring this since I could see my car from my room. The only downside is there wasn't much of a view. The breakfast was not bad at all. Definitely something to hold you over until lunch at least. If you're a picky eater it may be below your standards. QUICK BIT ON THE LOCATION: Wadsworth (the main street in front of the hotel) is very busy throughout the day, and especially during rush hour. During my stay here there was a lot of construction on the road, which made traffic even more congested. Most of the construction started about a mile away from the hotel. Drive defensively! Aside from that, there are plenty of banks, gas stations and restaurants up and down this main road. Plenty of stores nearby for you to grab anything you could possibly need. The area itself is okay as well; definitely not posh, but you're not in a low class neighborhood either. I wouldn't be particularly afraid of walking alone at night.Hope this review helps someone. I would stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Lori J, Guest Relations Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded October 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2016</t>
+  </si>
+  <si>
+    <t>I came for a 2-day stay and checked in during the late afternoon 10/26. The girl at the desk was friendly and helpful. My room (I believe it was the standard King) exceeded my expectations. It was very clean, everything (except the hair dryer that I wasn't really planning on using anyway) worked as it should, and it was a comfortable size. There was a tv in the sitting area and by the bed (I'm not sure how this would work out with a larger group as there is no door separating the rooms/noise). The hotel overall was fairly quiet despite the parking lot being filled with cars by the time I came back later in the evening. I parked in the back, which has easy access into the building through the breakfast area. I ended up preferring this since I could see my car from my room. The only downside is there wasn't much of a view. The breakfast was not bad at all. Definitely something to hold you over until lunch at least. If you're a picky eater it may be below your standards. 
+QUICK BIT ON THE LOCATION: Wadsworth (the main street in front of the hotel) is very busy throughout the day, and especially during rush hour. During my stay here there was a lot of construction on the road, which made traffic even more congested. Most of the construction started about a mile away from...I came for a 2-day stay and checked in during the late afternoon 10/26. The girl at the desk was friendly and helpful. My room (I believe it was the standard King) exceeded my expectations. It was very clean, everything (except the hair dryer that I wasn't really planning on using anyway) worked as it should, and it was a comfortable size. There was a tv in the sitting area and by the bed (I'm not sure how this would work out with a larger group as there is no door separating the rooms/noise). The hotel overall was fairly quiet despite the parking lot being filled with cars by the time I came back later in the evening. I parked in the back, which has easy access into the building through the breakfast area. I ended up preferring this since I could see my car from my room. The only downside is there wasn't much of a view. The breakfast was not bad at all. Definitely something to hold you over until lunch at least. If you're a picky eater it may be below your standards. QUICK BIT ON THE LOCATION: Wadsworth (the main street in front of the hotel) is very busy throughout the day, and especially during rush hour. During my stay here there was a lot of construction on the road, which made traffic even more congested. Most of the construction started about a mile away from the hotel. Drive defensively! Aside from that, there are plenty of banks, gas stations and restaurants up and down this main road. Plenty of stores nearby for you to grab anything you could possibly need. The area itself is okay as well; definitely not posh, but you're not in a low class neighborhood either. I wouldn't be particularly afraid of walking alone at night.Hope this review helps someone. I would stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r432427990-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>432427990</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t>We stayed here after a concert at Red Rocks. The hotel was a great location that with nice amenities for the value. Hotel was perfect, for the short drive to Red Rocks. Clean comfortable, and with an accommodating staff. Huge room, but didn't spend much time in it, except to sleep. Had hot breakfast in the morning. Restaurants nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>We stayed here after a concert at Red Rocks. The hotel was a great location that with nice amenities for the value. Hotel was perfect, for the short drive to Red Rocks. Clean comfortable, and with an accommodating staff. Huge room, but didn't spend much time in it, except to sleep. Had hot breakfast in the morning. Restaurants nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r430335693-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>430335693</t>
+  </si>
+  <si>
+    <t>10/21/2016</t>
+  </si>
+  <si>
+    <t>Well worth the price</t>
+  </si>
+  <si>
+    <t>Stayed at comfort suites 2 nights.  This is very easy to find in Lakewood.  Clean, comfortable, and very nice space. I would recommend to anyone that is looking for a nice place to stay.  It serves a nice complimentary breakfast.  Adequate parking and just down the street is a Denny's that has just been remodeled open 24/7.  Just off of Wadsworth .MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Stayed at comfort suites 2 nights.  This is very easy to find in Lakewood.  Clean, comfortable, and very nice space. I would recommend to anyone that is looking for a nice place to stay.  It serves a nice complimentary breakfast.  Adequate parking and just down the street is a Denny's that has just been remodeled open 24/7.  Just off of Wadsworth .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r425345144-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>425345144</t>
+  </si>
+  <si>
+    <t>10/05/2016</t>
+  </si>
+  <si>
+    <t>Very nice.</t>
+  </si>
+  <si>
+    <t>Room was clean and staff was courteous and professional. Property was nicely maintained. Easy access to Red Rocks Amphitheater for concerts. Room was very large and furniture was nice. Not a single complaint; highly recommended!MoreShow less</t>
+  </si>
+  <si>
+    <t>Room was clean and staff was courteous and professional. Property was nicely maintained. Easy access to Red Rocks Amphitheater for concerts. Room was very large and furniture was nice. Not a single complaint; highly recommended!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r417596579-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>417596579</t>
+  </si>
+  <si>
+    <t>09/12/2016</t>
+  </si>
+  <si>
+    <t>Family vacation</t>
+  </si>
+  <si>
+    <t>We checked in and the staff was very friendly, There was no safe, which I like to have. Maid didn't leave me lotion the second day. I use it on my legs and hands and it is small so didn't last. Had to go down and ask for some (they gave me 4 bottle, no problem) A Homeless man would come in the breakfast room through an unlocked door in the back. He would eat a lot. The Person at the desk said they had asked for a lock on that door and nothing she could do about him. Not happy with this.We were their Aug. 27 to Aug. 31.MoreShow less</t>
+  </si>
+  <si>
+    <t>We checked in and the staff was very friendly, There was no safe, which I like to have. Maid didn't leave me lotion the second day. I use it on my legs and hands and it is small so didn't last. Had to go down and ask for some (they gave me 4 bottle, no problem) A Homeless man would come in the breakfast room through an unlocked door in the back. He would eat a lot. The Person at the desk said they had asked for a lock on that door and nothing she could do about him. Not happy with this.We were their Aug. 27 to Aug. 31.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r415018625-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>415018625</t>
+  </si>
+  <si>
+    <t>09/05/2016</t>
+  </si>
+  <si>
+    <t>Awesome Hotel! Huge Rooms! Friendly Desk Staff!!!</t>
+  </si>
+  <si>
+    <t>Fantastic stay! Huge room! Comfy beds! Great breakfast and in room coffee makers stocked with Seattle's Best! Thank you!!! I will be back and stay here the next time I am in the Lakewood-Denver area!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Lori J, Guest Relations Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded September 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 6, 2016</t>
+  </si>
+  <si>
+    <t>Fantastic stay! Huge room! Comfy beds! Great breakfast and in room coffee makers stocked with Seattle's Best! Thank you!!! I will be back and stay here the next time I am in the Lakewood-Denver area!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r406797165-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>406797165</t>
+  </si>
+  <si>
+    <t>08/17/2016</t>
+  </si>
+  <si>
+    <t>Great place to stay in SW Denver</t>
+  </si>
+  <si>
+    <t>I was very pleased with my stay at this hotel.  It's convenient to where I wanted to be, close to my grandchildren, nice breakfast, very accommodating staff, I was most pleased.  They were very willing to help me with several issues...they said that they were trying hard to make their breakfasts more varied.  The breakfast lady did a great job stocking the food and keeping the room very clean.  Wish I would have gotten her name to share.  Price was good, room was clean and quiet. I will return!MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris H, General Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded August 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2016</t>
+  </si>
+  <si>
+    <t>I was very pleased with my stay at this hotel.  It's convenient to where I wanted to be, close to my grandchildren, nice breakfast, very accommodating staff, I was most pleased.  They were very willing to help me with several issues...they said that they were trying hard to make their breakfasts more varied.  The breakfast lady did a great job stocking the food and keeping the room very clean.  Wish I would have gotten her name to share.  Price was good, room was clean and quiet. I will return!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r403016405-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>403016405</t>
+  </si>
+  <si>
+    <t>08/08/2016</t>
+  </si>
+  <si>
+    <t>Nothing special</t>
+  </si>
+  <si>
+    <t>We were assigned a room adjacent to the elevator, which is very very noisy, especially in the evening.  You can feel it rumble. If they give you 213 or 215, or 313 or 315, ask for a different room.  Other than  that, it was a step above a basic room, with two tvs, microwave, small fridge, couch sitting area.  Pool is tiny, and quite warm.  Hot tub was good.  Breakfast was the standard fare and decent, actually it was better than the nearby Dennys, which doesn't say much about the Dennys nearby.The location is good for a one night stay near the freeway.  The location is poor for walking to places.  Nearby restaurants were the Dennys, old Chicago, an Asian place and a taco place.  Area is business park stuff.  They charge an arm and a leg for pop and candy bars, and the nearest gas station for decent prices is a sketchy walk under the freeway, complete with panhandle RSVP.  Best to bring your own ahead of time, or to drive.Staff was nice. MoreShow less</t>
+  </si>
+  <si>
+    <t>We were assigned a room adjacent to the elevator, which is very very noisy, especially in the evening.  You can feel it rumble. If they give you 213 or 215, or 313 or 315, ask for a different room.  Other than  that, it was a step above a basic room, with two tvs, microwave, small fridge, couch sitting area.  Pool is tiny, and quite warm.  Hot tub was good.  Breakfast was the standard fare and decent, actually it was better than the nearby Dennys, which doesn't say much about the Dennys nearby.The location is good for a one night stay near the freeway.  The location is poor for walking to places.  Nearby restaurants were the Dennys, old Chicago, an Asian place and a taco place.  Area is business park stuff.  They charge an arm and a leg for pop and candy bars, and the nearest gas station for decent prices is a sketchy walk under the freeway, complete with panhandle RSVP.  Best to bring your own ahead of time, or to drive.Staff was nice. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r401827717-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>401827717</t>
+  </si>
+  <si>
+    <t>08/05/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel Experience!</t>
+  </si>
+  <si>
+    <t>We stayed there for one night and the hotel was fabulous. The front desk man was very friendly and quick. The breakfast had variety and was very delicious. Overall it was an amazing hotel experience and one you would expect from Comfort Suites.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r382286336-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>382286336</t>
+  </si>
+  <si>
+    <t>06/13/2016</t>
+  </si>
+  <si>
+    <t>NEVER AGAIN!</t>
+  </si>
+  <si>
+    <t>The room smelled heavily of cigarette smoke and the AC was not working properly when we checked in. We were only going to stay one night, and checked in really late and tired, so we put up with this.  Then our car broke down the next day and we had to put it in the shop and rent a car.  We called to extend our stay, and were told we had to drive miles and miles back to the hotel before they could extend the stay because they had to see the same ID and credit card used to check in.   I got put on hold for almost 10 minutes and then hung up on when I tried to get the manager.  So, we were forced to drive many miles back to the hotel just to extend our stay for a second night.  Due to the car problem, we ended up needing the room for a third night and when we approached Chris, the manager on duty about the extension.  Chris was rude, arrogant, nasty and tried to up our rate by $70/night.  We got our stuff from the hotel room and checked out.  As we were pulling out of the parking lot, another guest ran out to our car to tell us that Chris was making extremely disparaging remarks about us to staff and other guests.  Then, when I complained to Choice Hotels I was promised compensation that I'm...The room smelled heavily of cigarette smoke and the AC was not working properly when we checked in. We were only going to stay one night, and checked in really late and tired, so we put up with this.  Then our car broke down the next day and we had to put it in the shop and rent a car.  We called to extend our stay, and were told we had to drive miles and miles back to the hotel before they could extend the stay because they had to see the same ID and credit card used to check in.   I got put on hold for almost 10 minutes and then hung up on when I tried to get the manager.  So, we were forced to drive many miles back to the hotel just to extend our stay for a second night.  Due to the car problem, we ended up needing the room for a third night and when we approached Chris, the manager on duty about the extension.  Chris was rude, arrogant, nasty and tried to up our rate by $70/night.  We got our stuff from the hotel room and checked out.  As we were pulling out of the parking lot, another guest ran out to our car to tell us that Chris was making extremely disparaging remarks about us to staff and other guests.  Then, when I complained to Choice Hotels I was promised compensation that I'm still trying to get!  The only good thing I can say is that another manager, Ivy, was pleasant and tried to rectify our situation.  Too bad Chris ruined her efforts.  NEVER AGAIN!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Chris H, General Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded June 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2016</t>
+  </si>
+  <si>
+    <t>The room smelled heavily of cigarette smoke and the AC was not working properly when we checked in. We were only going to stay one night, and checked in really late and tired, so we put up with this.  Then our car broke down the next day and we had to put it in the shop and rent a car.  We called to extend our stay, and were told we had to drive miles and miles back to the hotel before they could extend the stay because they had to see the same ID and credit card used to check in.   I got put on hold for almost 10 minutes and then hung up on when I tried to get the manager.  So, we were forced to drive many miles back to the hotel just to extend our stay for a second night.  Due to the car problem, we ended up needing the room for a third night and when we approached Chris, the manager on duty about the extension.  Chris was rude, arrogant, nasty and tried to up our rate by $70/night.  We got our stuff from the hotel room and checked out.  As we were pulling out of the parking lot, another guest ran out to our car to tell us that Chris was making extremely disparaging remarks about us to staff and other guests.  Then, when I complained to Choice Hotels I was promised compensation that I'm...The room smelled heavily of cigarette smoke and the AC was not working properly when we checked in. We were only going to stay one night, and checked in really late and tired, so we put up with this.  Then our car broke down the next day and we had to put it in the shop and rent a car.  We called to extend our stay, and were told we had to drive miles and miles back to the hotel before they could extend the stay because they had to see the same ID and credit card used to check in.   I got put on hold for almost 10 minutes and then hung up on when I tried to get the manager.  So, we were forced to drive many miles back to the hotel just to extend our stay for a second night.  Due to the car problem, we ended up needing the room for a third night and when we approached Chris, the manager on duty about the extension.  Chris was rude, arrogant, nasty and tried to up our rate by $70/night.  We got our stuff from the hotel room and checked out.  As we were pulling out of the parking lot, another guest ran out to our car to tell us that Chris was making extremely disparaging remarks about us to staff and other guests.  Then, when I complained to Choice Hotels I was promised compensation that I'm still trying to get!  The only good thing I can say is that another manager, Ivy, was pleasant and tried to rectify our situation.  Too bad Chris ruined her efforts.  NEVER AGAIN!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r382059128-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>382059128</t>
+  </si>
+  <si>
+    <t>06/12/2016</t>
+  </si>
+  <si>
+    <t>A Sweet Stay at Comfort Suites</t>
+  </si>
+  <si>
+    <t>As the title of my review implies, my stay at Comfort Suites Lakewood was great. The room was different than any other I have stayed in the past. The one I stayed in was quite large, with sliding doors separating a living room, small kitchen, and bathroom from the main bedroom with two queen size bed. It was like having two hotel rooms in one or like an actual apartment, The sliding doors were awesome due to us having children. Two flat screen TVs (one in living room and the other in the bedroom)!! The breakfast was great and the manager, Chris, seemed to really care about his guests. Overall, a great room, hotel, and stay for the money!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Chris H, General Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded June 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2016</t>
+  </si>
+  <si>
+    <t>As the title of my review implies, my stay at Comfort Suites Lakewood was great. The room was different than any other I have stayed in the past. The one I stayed in was quite large, with sliding doors separating a living room, small kitchen, and bathroom from the main bedroom with two queen size bed. It was like having two hotel rooms in one or like an actual apartment, The sliding doors were awesome due to us having children. Two flat screen TVs (one in living room and the other in the bedroom)!! The breakfast was great and the manager, Chris, seemed to really care about his guests. Overall, a great room, hotel, and stay for the money!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r379109912-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>379109912</t>
+  </si>
+  <si>
+    <t>06/02/2016</t>
+  </si>
+  <si>
+    <t>5+ stars!</t>
+  </si>
+  <si>
+    <t>This place is great! The facilities are in excellent shape. My room was immaculate!! The bed was comfy. The guy at the front desk was very friendly and conversational. It's also in a good location. I had a very good stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Chris H, General Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded June 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2016</t>
+  </si>
+  <si>
+    <t>This place is great! The facilities are in excellent shape. My room was immaculate!! The bed was comfy. The guy at the front desk was very friendly and conversational. It's also in a good location. I had a very good stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r371625768-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>371625768</t>
+  </si>
+  <si>
+    <t>05/09/2016</t>
+  </si>
+  <si>
+    <t>THE BEST PLACE TO STAY</t>
+  </si>
+  <si>
+    <t>This was a great find. We stay there once a month for a few days when we come to visit our mon in the nursing  home from out of state. The have the best rates and the best staff who is always friendly and accommodating. The buffet breakfast  is wonderful with a great selection and tasty sauage and biscuits on some days but scrambled eggs,sausage,potatoes,waffles,fruit, yogurt and cerial and rolls etc. The rooms are cleam and the most COMFORTABLE BEDS.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r370280547-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>370280547</t>
+  </si>
+  <si>
+    <t>05/04/2016</t>
+  </si>
+  <si>
+    <t>Ok stay, but could be better.</t>
+  </si>
+  <si>
+    <t>Got a great deal on a king size suite. Arrived at realized the front desk staff was young and inexperienced. They were nice, but clueless. When I booked the hotel (From hotels.com) it was prepaid. When I arrived the front desk staff almost double charged me. Not sure how their computers work, but it was a click away. The really need better training to make sure this doesn't happen. First thing I really noticed after I checked in was the elevator. That elevator needs to be ripped out and reinstalled. It was loud, shaky and scary. We were on the 3 rd floor and took it a few times, until we decided we would walk up and down 3 flights to avoid it. I felt sorry for the rooms right beside the elevator. I'm glad we requested the top floor, because the floor was creaky in spots. The room was nice and clean. 2 tv's and great wifi. The bathroom sink is seperate from the toilet and bathtub which isn't my favorite set up, but I got over it. Breakfast was good and changed up daily. The housekeepers and construction workers were VERY loud in the hallways every morning around 7 am. I got woken up daily because of this. Not a bad stay, but not great.MoreShow less</t>
+  </si>
+  <si>
+    <t>Got a great deal on a king size suite. Arrived at realized the front desk staff was young and inexperienced. They were nice, but clueless. When I booked the hotel (From hotels.com) it was prepaid. When I arrived the front desk staff almost double charged me. Not sure how their computers work, but it was a click away. The really need better training to make sure this doesn't happen. First thing I really noticed after I checked in was the elevator. That elevator needs to be ripped out and reinstalled. It was loud, shaky and scary. We were on the 3 rd floor and took it a few times, until we decided we would walk up and down 3 flights to avoid it. I felt sorry for the rooms right beside the elevator. I'm glad we requested the top floor, because the floor was creaky in spots. The room was nice and clean. 2 tv's and great wifi. The bathroom sink is seperate from the toilet and bathtub which isn't my favorite set up, but I got over it. Breakfast was good and changed up daily. The housekeepers and construction workers were VERY loud in the hallways every morning around 7 am. I got woken up daily because of this. Not a bad stay, but not great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r366767039-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>366767039</t>
+  </si>
+  <si>
+    <t>04/23/2016</t>
+  </si>
+  <si>
+    <t>Great customer service</t>
+  </si>
+  <si>
+    <t>The customer service was great from top to bottom. Even the maintenance person (I think his name was Kelvin, Kevin or Calvin) was friendly and extremely helpful. He was truly a delight. He spoke to us and gave us directions to a local restaurant. He even sought us out in the lobby to ask how our meal was after the fact. It was nice because anyone other than front desk staff usually will not smile or speak- or even make eye contact. He was nice and his demeanor remained the same for our entire stay. There was also a front desk person who was awesome. I can't remember her name but overall the customer service was out of this world. GREAT PLACE TO STAY!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris H, General Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded April 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2016</t>
+  </si>
+  <si>
+    <t>The customer service was great from top to bottom. Even the maintenance person (I think his name was Kelvin, Kevin or Calvin) was friendly and extremely helpful. He was truly a delight. He spoke to us and gave us directions to a local restaurant. He even sought us out in the lobby to ask how our meal was after the fact. It was nice because anyone other than front desk staff usually will not smile or speak- or even make eye contact. He was nice and his demeanor remained the same for our entire stay. There was also a front desk person who was awesome. I can't remember her name but overall the customer service was out of this world. GREAT PLACE TO STAY!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r365272624-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>365272624</t>
+  </si>
+  <si>
+    <t>04/18/2016</t>
+  </si>
+  <si>
+    <t>Very nice stay</t>
+  </si>
+  <si>
+    <t>The hotel is in a good location southwest of Downtown Denver. On a fairly quiet side street just off a busy main road (Wadsworth Blvd. / SR 121). Hotel looks very nice as you approach at night; nicely landscaped and lighted, looks very warm and inviting. Front desk staff was very friendly and polite at check-in;express check-out always saves precious time in the morning. My 2nd floor King Suite was decent sized, very clean, nicely furnished and decorated. I enjoyed a relaxing evening watching mindless television, followed by a great nights' sleep in a very comfortable bed. Hotel was very quiet. Terrific breakfast in the morning. Price I was charged was more than fair.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris H, General Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded April 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2016</t>
+  </si>
+  <si>
+    <t>The hotel is in a good location southwest of Downtown Denver. On a fairly quiet side street just off a busy main road (Wadsworth Blvd. / SR 121). Hotel looks very nice as you approach at night; nicely landscaped and lighted, looks very warm and inviting. Front desk staff was very friendly and polite at check-in;express check-out always saves precious time in the morning. My 2nd floor King Suite was decent sized, very clean, nicely furnished and decorated. I enjoyed a relaxing evening watching mindless television, followed by a great nights' sleep in a very comfortable bed. Hotel was very quiet. Terrific breakfast in the morning. Price I was charged was more than fair.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r363507409-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>363507409</t>
+  </si>
+  <si>
+    <t>04/11/2016</t>
+  </si>
+  <si>
+    <t>Best Place in Denver</t>
+  </si>
+  <si>
+    <t>This hotel is a gem in Denver. Whenever I am in the area I stay at the Comfort Suites. The staff are very friendly, the breakfast has many options and accommodations are excellent. If you haven't stayed at this hotel you are missing out.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Chris H, General Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded April 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2016</t>
+  </si>
+  <si>
+    <t>This hotel is a gem in Denver. Whenever I am in the area I stay at the Comfort Suites. The staff are very friendly, the breakfast has many options and accommodations are excellent. If you haven't stayed at this hotel you are missing out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r363461006-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>363461006</t>
+  </si>
+  <si>
+    <t>Just a weekend trip</t>
+  </si>
+  <si>
+    <t>This was a great stay. The staff was always warm and welcoming with a great smile that made us feel more the just a guest. The breakfast was fresh and hot and the green Chile was great on the eggs. The room was clean and the bed was out of this world. When we come back for a concert at Red Rock this summer this will be are hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>This was a great stay. The staff was always warm and welcoming with a great smile that made us feel more the just a guest. The breakfast was fresh and hot and the green Chile was great on the eggs. The room was clean and the bed was out of this world. When we come back for a concert at Red Rock this summer this will be are hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r355750972-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>355750972</t>
+  </si>
+  <si>
+    <t>03/15/2016</t>
+  </si>
+  <si>
+    <t>Lexi on front desk was highlight of our trip</t>
+  </si>
+  <si>
+    <t>Hotel was great, rooms a little on the small side but no complaints. Lexi on front desk was very helpful and helped to make our stay very enjoyable. Would come back again in a heartbeat knowing that staff are so friendly and accommodating. Unreal service!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Chris H, Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded April 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2016</t>
+  </si>
+  <si>
+    <t>Hotel was great, rooms a little on the small side but no complaints. Lexi on front desk was very helpful and helped to make our stay very enjoyable. Would come back again in a heartbeat knowing that staff are so friendly and accommodating. Unreal service!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r339485919-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>339485919</t>
+  </si>
+  <si>
+    <t>01/12/2016</t>
+  </si>
+  <si>
+    <t>Continue Shopping</t>
+  </si>
+  <si>
+    <t>The front desk agent promised a rate and accommodations during our stay, which was confirmed the next day, but not honored and, once the error was discovered, the manager refused to correct the issue in any way.  We were very disappointed in the behavior of everyone involved.  The rooms were adequate, but the free breakfast was worthy of its value and should be avoided at all costs other than the store bought yogurt and fruit that they could not ruin.  Continue shopping for other hotels who care about their clients.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Lori J, Guest Relations Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded January 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 14, 2016</t>
+  </si>
+  <si>
+    <t>The front desk agent promised a rate and accommodations during our stay, which was confirmed the next day, but not honored and, once the error was discovered, the manager refused to correct the issue in any way.  We were very disappointed in the behavior of everyone involved.  The rooms were adequate, but the free breakfast was worthy of its value and should be avoided at all costs other than the store bought yogurt and fruit that they could not ruin.  Continue shopping for other hotels who care about their clients.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r323859630-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>323859630</t>
+  </si>
+  <si>
+    <t>11/02/2015</t>
+  </si>
+  <si>
+    <t>Just O.K.</t>
+  </si>
+  <si>
+    <t>Not a bad place to visit, but promises by front desk staff for Premiere club points are not kept.  Also, internet sometimes sketchy.  Facility is well used, an o.k. place to stay if you are in real need.  Breakfast just above average for included breakfasts.  Beds are awesome, but everything else appears a little tattered.  Most of all, don't expect front des staff to keep promises regarding Premiere club.  Also had a difficult time gaining inteest in a longer-term stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Lori J, Guest Relations Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded November 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 6, 2015</t>
+  </si>
+  <si>
+    <t>Not a bad place to visit, but promises by front desk staff for Premiere club points are not kept.  Also, internet sometimes sketchy.  Facility is well used, an o.k. place to stay if you are in real need.  Breakfast just above average for included breakfasts.  Beds are awesome, but everything else appears a little tattered.  Most of all, don't expect front des staff to keep promises regarding Premiere club.  Also had a difficult time gaining inteest in a longer-term stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r318692014-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>318692014</t>
+  </si>
+  <si>
+    <t>10/14/2015</t>
+  </si>
+  <si>
+    <t>Elevator out but all in all a great place to stay</t>
+  </si>
+  <si>
+    <t>This is a great place to stay.  The people are nice, we were able to get into our room about one hour before we were told we could, the breakfast was GREAT!!!  The pool is smaller than the pics make it seem, the beds are comfy, the rooms are nice and spacious.  Elevator was out and we were on the third floor so that sucked :)MoreShow less</t>
+  </si>
+  <si>
+    <t>Lori J, Guest Relations Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded October 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 16, 2015</t>
+  </si>
+  <si>
+    <t>This is a great place to stay.  The people are nice, we were able to get into our room about one hour before we were told we could, the breakfast was GREAT!!!  The pool is smaller than the pics make it seem, the beds are comfy, the rooms are nice and spacious.  Elevator was out and we were on the third floor so that sucked :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r316276854-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>316276854</t>
+  </si>
+  <si>
+    <t>10/05/2015</t>
+  </si>
+  <si>
+    <t>So Frustrated.</t>
+  </si>
+  <si>
+    <t>The hotel overbooked and we were moved into another room- not at all was reserved.We were promised a rate reduced by $20  when we checked in on the inferior room~ nope, didn't get that either. The toilet started to refill literally every 5 minutes, from the moment we checked in. It got to be kind of funny so I timed it while my husband was out getting dinner. No clock in the room, shampoo for one.  Sigh. Oh, and the elevator didn't work. :)We have stayed here before and were happy. Even dealt with the renovation. This wassub par.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lori J, Guest Relations Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded October 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 8, 2015</t>
+  </si>
+  <si>
+    <t>The hotel overbooked and we were moved into another room- not at all was reserved.We were promised a rate reduced by $20  when we checked in on the inferior room~ nope, didn't get that either. The toilet started to refill literally every 5 minutes, from the moment we checked in. It got to be kind of funny so I timed it while my husband was out getting dinner. No clock in the room, shampoo for one.  Sigh. Oh, and the elevator didn't work. :)We have stayed here before and were happy. Even dealt with the renovation. This wassub par.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r314893869-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>314893869</t>
+  </si>
+  <si>
+    <t>09/29/2015</t>
+  </si>
+  <si>
+    <t>Remodeling but still good!</t>
+  </si>
+  <si>
+    <t>I got a great rate because they are undergoing renovation. It wasn't really in the way for the most part. The beds were comfortable and the rooms were very large. The breakfast wasn't very good. The eggs were my real. mosppart.part. The were comfortable TheThe bedsMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>I got a great rate because they are undergoing renovation. It wasn't really in the way for the most part. The beds were comfortable and the rooms were very large. The breakfast wasn't very good. The eggs were my real. mosppart.part. The were comfortable TheThe bedsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r306913614-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>306913614</t>
+  </si>
+  <si>
+    <t>09/04/2015</t>
+  </si>
+  <si>
+    <t>great hotel for good price.</t>
+  </si>
+  <si>
+    <t>Nice bed and complimentary breakfast, very friendly and accommodating staff. We really enjoyed our stay there, convenient location and not noisy outside even though close to highway. would definitely recommend if you need to stay close to Red Rocks.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Lori J, Guest Relations Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded September 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 10, 2015</t>
+  </si>
+  <si>
+    <t>Nice bed and complimentary breakfast, very friendly and accommodating staff. We really enjoyed our stay there, convenient location and not noisy outside even though close to highway. would definitely recommend if you need to stay close to Red Rocks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r300872254-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>300872254</t>
+  </si>
+  <si>
+    <t>08/18/2015</t>
+  </si>
+  <si>
+    <t>Trying but not quite there</t>
+  </si>
+  <si>
+    <t>Great that a hotel wants to add improvements, but several areas smell like paint, construction, drywall.  NO ICE in the entire hotel (ice makers broken).  Fridge in room was lukewarm and couldn't put anything in freezer due to ice buildup.  Front desk staff friendly, but doesn't make up for other areas.  Would not stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lori J, Guest Relations Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded August 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 20, 2015</t>
+  </si>
+  <si>
+    <t>Great that a hotel wants to add improvements, but several areas smell like paint, construction, drywall.  NO ICE in the entire hotel (ice makers broken).  Fridge in room was lukewarm and couldn't put anything in freezer due to ice buildup.  Front desk staff friendly, but doesn't make up for other areas.  Would not stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r296152948-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>296152948</t>
+  </si>
+  <si>
+    <t>08/05/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice suite, needs updating </t>
+  </si>
+  <si>
+    <t>We had to stay here because our usual and favorite, Hampton, was booked. We liked that it is a suite, but it is older and needs updating. Our room was clean enough, but it had a funky smell when you walked in, however you got used to it after you were in there for awhile. It has two rooms. The bedroom is nice, spacious and clean with a comfortable bed and cool AC. It has a dresser, flat screen and desk. The living room has a sleeper sofa, chair, coffee table, end table, fridge, micro, sink, lavatory and closet, but oddly not a TV. It was nice just to relax in and play on your electronics and converse, however. Unfortunately, the ceiling above the tub had mold. Not attractive and gave me the willies. The 3rd floor hallway was hot and the carpet was old and dirty.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lori J, Guest Relations Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded August 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2015</t>
+  </si>
+  <si>
+    <t>We had to stay here because our usual and favorite, Hampton, was booked. We liked that it is a suite, but it is older and needs updating. Our room was clean enough, but it had a funky smell when you walked in, however you got used to it after you were in there for awhile. It has two rooms. The bedroom is nice, spacious and clean with a comfortable bed and cool AC. It has a dresser, flat screen and desk. The living room has a sleeper sofa, chair, coffee table, end table, fridge, micro, sink, lavatory and closet, but oddly not a TV. It was nice just to relax in and play on your electronics and converse, however. Unfortunately, the ceiling above the tub had mold. Not attractive and gave me the willies. The 3rd floor hallway was hot and the carpet was old and dirty.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r279991919-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>279991919</t>
+  </si>
+  <si>
+    <t>06/13/2015</t>
+  </si>
+  <si>
+    <t>Big rooms, very good breakfast</t>
+  </si>
+  <si>
+    <t>We stayed 1 night in the Comfort Suites. We got a cheap deal online for a queen room and when we checked in the desk clerk advised us that the these rooms were beside the noisy elevator. He offered to move us and gave us a double queen in a quiet location for the same price. The room was large, the bed was comfortable, the AC worked well and the wifi was strong. There were even 2 charging stations for various devices. The breakfast is a self serve buffet with lots of options. There's even a waffle iron and fresh batter which I used. Overall a nice pace to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lori J, Public Relations Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded June 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 16, 2015</t>
+  </si>
+  <si>
+    <t>We stayed 1 night in the Comfort Suites. We got a cheap deal online for a queen room and when we checked in the desk clerk advised us that the these rooms were beside the noisy elevator. He offered to move us and gave us a double queen in a quiet location for the same price. The room was large, the bed was comfortable, the AC worked well and the wifi was strong. There were even 2 charging stations for various devices. The breakfast is a self serve buffet with lots of options. There's even a waffle iron and fresh batter which I used. Overall a nice pace to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r275569419-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>275569419</t>
+  </si>
+  <si>
+    <t>05/29/2015</t>
+  </si>
+  <si>
+    <t>Great place to stay!!</t>
+  </si>
+  <si>
+    <t>We stayed here after a bad experience at another hotel across the street. I wish we would have stayed longer this place was great!Clean. Friendly. The whirlpool tub was nice in our room and the bed was SUPER COMFY!. Firm and soft pillows included depending on what you like. Small breakfast available as well as pool, hot tub, workout room.Great value for the priceMoreShow less</t>
+  </si>
+  <si>
+    <t>Lori J, Public Relations Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded June 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 3, 2015</t>
+  </si>
+  <si>
+    <t>We stayed here after a bad experience at another hotel across the street. I wish we would have stayed longer this place was great!Clean. Friendly. The whirlpool tub was nice in our room and the bed was SUPER COMFY!. Firm and soft pillows included depending on what you like. Small breakfast available as well as pool, hot tub, workout room.Great value for the priceMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r275169365-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>275169365</t>
+  </si>
+  <si>
+    <t>05/27/2015</t>
+  </si>
+  <si>
+    <t>Very Good Service!</t>
+  </si>
+  <si>
+    <t>An emergency trip, with no time to make reservations ahead, found the Comfort Inn through Trip Advisor recommendations.  It was clean, comfortable and the staff was very accommodating and helpful in making the reservation, helping with directions and assistance while at the hotel.  I would have to give it a 5*!  I thought the room was very good for the price and the hotel clean, well presented and included all the amenities needed. I would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>An emergency trip, with no time to make reservations ahead, found the Comfort Inn through Trip Advisor recommendations.  It was clean, comfortable and the staff was very accommodating and helpful in making the reservation, helping with directions and assistance while at the hotel.  I would have to give it a 5*!  I thought the room was very good for the price and the hotel clean, well presented and included all the amenities needed. I would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r263258168-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>263258168</t>
+  </si>
+  <si>
+    <t>04/02/2015</t>
+  </si>
+  <si>
+    <t>Good value</t>
+  </si>
+  <si>
+    <t>Very average hotel and room.    This three star hotel is a good value and I like the area.   The staff is friendly and there are many restaurants nearby.  The commute to downtown had quite a bit of traffic.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Lori J, Public Relations Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded April 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2015</t>
+  </si>
+  <si>
+    <t>Very average hotel and room.    This three star hotel is a good value and I like the area.   The staff is friendly and there are many restaurants nearby.  The commute to downtown had quite a bit of traffic.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r262017973-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>262017973</t>
+  </si>
+  <si>
+    <t>03/26/2015</t>
+  </si>
+  <si>
+    <t>Good room but a bit tired around the edges</t>
+  </si>
+  <si>
+    <t>This was a very comfy stay for two nights.The room was a good size and warm while the snow was on the ground outside.My room was large and had a lounge suite and kitchenette.The bed was good.The wifi was fast and stable and the tv reception was clear.Breakfast area was big with plenty of options for this class of motel.The lift was a bit creaky and slowMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Bereit, Area Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded March 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2015</t>
+  </si>
+  <si>
+    <t>This was a very comfy stay for two nights.The room was a good size and warm while the snow was on the ground outside.My room was large and had a lounge suite and kitchenette.The bed was good.The wifi was fast and stable and the tv reception was clear.Breakfast area was big with plenty of options for this class of motel.The lift was a bit creaky and slowMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r255520390-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>255520390</t>
+  </si>
+  <si>
+    <t>02/20/2015</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>We were visiting family and have stayed at other hotels in the area.  We were very happy with this one and will be back.  The bed was comfortable and the breakfast offered more than just pasteries.  We walked over to Old Chicago for a late night drink and snack.  Conveniently located.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r243929384-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>243929384</t>
+  </si>
+  <si>
+    <t>12/10/2014</t>
+  </si>
+  <si>
+    <t>Quick Business trip to Littleton</t>
+  </si>
+  <si>
+    <t>Hotel was perfect, very cold/snowy day. Huge room, but didn't spend but sleep time in it. Had Hot breakfast in the morning. Clean Comfortable, and Nice staff! Perfect location, with plenty of Restaurants, and the major Mall nearby.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1939,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1971,3785 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" t="s">
+        <v>80</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>81</v>
+      </c>
+      <c r="X5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>89</v>
+      </c>
+      <c r="O6" t="s">
+        <v>90</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>91</v>
+      </c>
+      <c r="X6" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>99</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>100</v>
+      </c>
+      <c r="X7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" t="s">
+        <v>107</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" t="s">
+        <v>80</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>108</v>
+      </c>
+      <c r="X8" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" t="s">
+        <v>114</v>
+      </c>
+      <c r="L9" t="s">
+        <v>115</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>116</v>
+      </c>
+      <c r="X9" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" t="s">
+        <v>122</v>
+      </c>
+      <c r="L10" t="s">
+        <v>123</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>124</v>
+      </c>
+      <c r="O10" t="s">
+        <v>90</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>125</v>
+      </c>
+      <c r="X10" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>129</v>
+      </c>
+      <c r="J11" t="s">
+        <v>130</v>
+      </c>
+      <c r="K11" t="s">
+        <v>131</v>
+      </c>
+      <c r="L11" t="s">
+        <v>132</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>133</v>
+      </c>
+      <c r="O11" t="s">
+        <v>80</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>134</v>
+      </c>
+      <c r="X11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J12" t="s">
+        <v>139</v>
+      </c>
+      <c r="K12" t="s">
+        <v>140</v>
+      </c>
+      <c r="L12" t="s">
+        <v>141</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>133</v>
+      </c>
+      <c r="O12" t="s">
+        <v>80</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>142</v>
+      </c>
+      <c r="X12" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J13" t="s">
+        <v>147</v>
+      </c>
+      <c r="K13" t="s">
+        <v>148</v>
+      </c>
+      <c r="L13" t="s">
+        <v>149</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>133</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>150</v>
+      </c>
+      <c r="X13" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>154</v>
+      </c>
+      <c r="J14" t="s">
+        <v>155</v>
+      </c>
+      <c r="K14" t="s">
+        <v>156</v>
+      </c>
+      <c r="L14" t="s">
+        <v>157</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>158</v>
+      </c>
+      <c r="O14" t="s">
+        <v>159</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>160</v>
+      </c>
+      <c r="X14" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>164</v>
+      </c>
+      <c r="J15" t="s">
+        <v>165</v>
+      </c>
+      <c r="K15" t="s">
+        <v>166</v>
+      </c>
+      <c r="L15" t="s">
+        <v>167</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>168</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>169</v>
+      </c>
+      <c r="X15" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>172</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>173</v>
+      </c>
+      <c r="J16" t="s">
+        <v>174</v>
+      </c>
+      <c r="K16" t="s">
+        <v>175</v>
+      </c>
+      <c r="L16" t="s">
+        <v>176</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>168</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>177</v>
+      </c>
+      <c r="X16" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>180</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>181</v>
+      </c>
+      <c r="J17" t="s">
+        <v>182</v>
+      </c>
+      <c r="K17" t="s">
+        <v>183</v>
+      </c>
+      <c r="L17" t="s">
+        <v>184</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>168</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>185</v>
+      </c>
+      <c r="X17" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>188</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>189</v>
+      </c>
+      <c r="J18" t="s">
+        <v>190</v>
+      </c>
+      <c r="K18" t="s">
+        <v>191</v>
+      </c>
+      <c r="L18" t="s">
+        <v>192</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>193</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>194</v>
+      </c>
+      <c r="X18" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>198</v>
+      </c>
+      <c r="J19" t="s">
+        <v>199</v>
+      </c>
+      <c r="K19" t="s">
+        <v>200</v>
+      </c>
+      <c r="L19" t="s">
+        <v>201</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>193</v>
+      </c>
+      <c r="O19" t="s">
+        <v>80</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>202</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>203</v>
+      </c>
+      <c r="J20" t="s">
+        <v>204</v>
+      </c>
+      <c r="K20" t="s">
+        <v>205</v>
+      </c>
+      <c r="L20" t="s">
+        <v>206</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>207</v>
+      </c>
+      <c r="O20" t="s">
+        <v>80</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>208</v>
+      </c>
+      <c r="X20" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>211</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>212</v>
+      </c>
+      <c r="J21" t="s">
+        <v>213</v>
+      </c>
+      <c r="K21" t="s">
+        <v>214</v>
+      </c>
+      <c r="L21" t="s">
+        <v>215</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>216</v>
+      </c>
+      <c r="O21" t="s">
+        <v>70</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>208</v>
+      </c>
+      <c r="X21" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>218</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>219</v>
+      </c>
+      <c r="J22" t="s">
+        <v>220</v>
+      </c>
+      <c r="K22" t="s">
+        <v>221</v>
+      </c>
+      <c r="L22" t="s">
+        <v>222</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>207</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>223</v>
+      </c>
+      <c r="X22" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>226</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>227</v>
+      </c>
+      <c r="J23" t="s">
+        <v>228</v>
+      </c>
+      <c r="K23" t="s">
+        <v>229</v>
+      </c>
+      <c r="L23" t="s">
+        <v>230</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>231</v>
+      </c>
+      <c r="X23" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>234</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>235</v>
+      </c>
+      <c r="J24" t="s">
+        <v>236</v>
+      </c>
+      <c r="K24" t="s">
+        <v>237</v>
+      </c>
+      <c r="L24" t="s">
+        <v>238</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>239</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>240</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>241</v>
+      </c>
+      <c r="J25" t="s">
+        <v>242</v>
+      </c>
+      <c r="K25" t="s">
+        <v>243</v>
+      </c>
+      <c r="L25" t="s">
+        <v>244</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>245</v>
+      </c>
+      <c r="O25" t="s">
+        <v>80</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>247</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>248</v>
+      </c>
+      <c r="J26" t="s">
+        <v>249</v>
+      </c>
+      <c r="K26" t="s">
+        <v>250</v>
+      </c>
+      <c r="L26" t="s">
+        <v>251</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>252</v>
+      </c>
+      <c r="O26" t="s">
+        <v>70</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>253</v>
+      </c>
+      <c r="X26" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>256</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>257</v>
+      </c>
+      <c r="J27" t="s">
+        <v>249</v>
+      </c>
+      <c r="K27" t="s">
+        <v>258</v>
+      </c>
+      <c r="L27" t="s">
+        <v>259</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>260</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>253</v>
+      </c>
+      <c r="X27" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>262</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>263</v>
+      </c>
+      <c r="J28" t="s">
+        <v>264</v>
+      </c>
+      <c r="K28" t="s">
+        <v>265</v>
+      </c>
+      <c r="L28" t="s">
+        <v>266</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>267</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>253</v>
+      </c>
+      <c r="X28" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>269</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>270</v>
+      </c>
+      <c r="J29" t="s">
+        <v>271</v>
+      </c>
+      <c r="K29" t="s">
+        <v>272</v>
+      </c>
+      <c r="L29" t="s">
+        <v>273</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>253</v>
+      </c>
+      <c r="X29" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>275</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>276</v>
+      </c>
+      <c r="J30" t="s">
+        <v>277</v>
+      </c>
+      <c r="K30" t="s">
+        <v>278</v>
+      </c>
+      <c r="L30" t="s">
+        <v>279</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>260</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>253</v>
+      </c>
+      <c r="X30" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>281</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>282</v>
+      </c>
+      <c r="J31" t="s">
+        <v>283</v>
+      </c>
+      <c r="K31" t="s">
+        <v>284</v>
+      </c>
+      <c r="L31" t="s">
+        <v>285</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>267</v>
+      </c>
+      <c r="O31" t="s">
+        <v>70</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>286</v>
+      </c>
+      <c r="X31" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>289</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>290</v>
+      </c>
+      <c r="J32" t="s">
+        <v>291</v>
+      </c>
+      <c r="K32" t="s">
+        <v>292</v>
+      </c>
+      <c r="L32" t="s">
+        <v>293</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>260</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>294</v>
+      </c>
+      <c r="X32" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>297</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>298</v>
+      </c>
+      <c r="J33" t="s">
+        <v>299</v>
+      </c>
+      <c r="K33" t="s">
+        <v>300</v>
+      </c>
+      <c r="L33" t="s">
+        <v>301</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>260</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>303</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>304</v>
+      </c>
+      <c r="J34" t="s">
+        <v>305</v>
+      </c>
+      <c r="K34" t="s">
+        <v>306</v>
+      </c>
+      <c r="L34" t="s">
+        <v>307</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>260</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>308</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>309</v>
+      </c>
+      <c r="J35" t="s">
+        <v>310</v>
+      </c>
+      <c r="K35" t="s">
+        <v>311</v>
+      </c>
+      <c r="L35" t="s">
+        <v>312</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>313</v>
+      </c>
+      <c r="O35" t="s">
+        <v>80</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>3</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>314</v>
+      </c>
+      <c r="X35" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>317</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>318</v>
+      </c>
+      <c r="J36" t="s">
+        <v>319</v>
+      </c>
+      <c r="K36" t="s">
+        <v>320</v>
+      </c>
+      <c r="L36" t="s">
+        <v>321</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>322</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>323</v>
+      </c>
+      <c r="X36" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>326</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>327</v>
+      </c>
+      <c r="J37" t="s">
+        <v>328</v>
+      </c>
+      <c r="K37" t="s">
+        <v>329</v>
+      </c>
+      <c r="L37" t="s">
+        <v>330</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>331</v>
+      </c>
+      <c r="O37" t="s">
+        <v>70</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>332</v>
+      </c>
+      <c r="X37" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>335</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>336</v>
+      </c>
+      <c r="J38" t="s">
+        <v>337</v>
+      </c>
+      <c r="K38" t="s">
+        <v>338</v>
+      </c>
+      <c r="L38" t="s">
+        <v>339</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>331</v>
+      </c>
+      <c r="O38" t="s">
+        <v>80</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>340</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>341</v>
+      </c>
+      <c r="J39" t="s">
+        <v>342</v>
+      </c>
+      <c r="K39" t="s">
+        <v>343</v>
+      </c>
+      <c r="L39" t="s">
+        <v>344</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>331</v>
+      </c>
+      <c r="O39" t="s">
+        <v>159</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>2</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>346</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>347</v>
+      </c>
+      <c r="J40" t="s">
+        <v>348</v>
+      </c>
+      <c r="K40" t="s">
+        <v>349</v>
+      </c>
+      <c r="L40" t="s">
+        <v>350</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>322</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>351</v>
+      </c>
+      <c r="X40" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>354</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>355</v>
+      </c>
+      <c r="J41" t="s">
+        <v>356</v>
+      </c>
+      <c r="K41" t="s">
+        <v>357</v>
+      </c>
+      <c r="L41" t="s">
+        <v>358</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>322</v>
+      </c>
+      <c r="O41" t="s">
+        <v>90</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>359</v>
+      </c>
+      <c r="X41" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>362</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>363</v>
+      </c>
+      <c r="J42" t="s">
+        <v>364</v>
+      </c>
+      <c r="K42" t="s">
+        <v>365</v>
+      </c>
+      <c r="L42" t="s">
+        <v>366</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>367</v>
+      </c>
+      <c r="O42" t="s">
+        <v>90</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>368</v>
+      </c>
+      <c r="X42" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>371</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>372</v>
+      </c>
+      <c r="J43" t="s">
+        <v>364</v>
+      </c>
+      <c r="K43" t="s">
+        <v>373</v>
+      </c>
+      <c r="L43" t="s">
+        <v>374</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>375</v>
+      </c>
+      <c r="O43" t="s">
+        <v>159</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>351</v>
+      </c>
+      <c r="X43" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>377</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>378</v>
+      </c>
+      <c r="J44" t="s">
+        <v>379</v>
+      </c>
+      <c r="K44" t="s">
+        <v>380</v>
+      </c>
+      <c r="L44" t="s">
+        <v>381</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>382</v>
+      </c>
+      <c r="O44" t="s">
+        <v>159</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>383</v>
+      </c>
+      <c r="X44" t="s">
+        <v>384</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>386</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>387</v>
+      </c>
+      <c r="J45" t="s">
+        <v>388</v>
+      </c>
+      <c r="K45" t="s">
+        <v>389</v>
+      </c>
+      <c r="L45" t="s">
+        <v>390</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>391</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>392</v>
+      </c>
+      <c r="X45" t="s">
+        <v>393</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>395</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>396</v>
+      </c>
+      <c r="J46" t="s">
+        <v>397</v>
+      </c>
+      <c r="K46" t="s">
+        <v>398</v>
+      </c>
+      <c r="L46" t="s">
+        <v>399</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="s">
+        <v>400</v>
+      </c>
+      <c r="O46" t="s">
+        <v>90</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>3</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>401</v>
+      </c>
+      <c r="X46" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>404</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>405</v>
+      </c>
+      <c r="J47" t="s">
+        <v>406</v>
+      </c>
+      <c r="K47" t="s">
+        <v>407</v>
+      </c>
+      <c r="L47" t="s">
+        <v>408</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>400</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>409</v>
+      </c>
+      <c r="X47" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>412</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>413</v>
+      </c>
+      <c r="J48" t="s">
+        <v>414</v>
+      </c>
+      <c r="K48" t="s">
+        <v>415</v>
+      </c>
+      <c r="L48" t="s">
+        <v>416</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>400</v>
+      </c>
+      <c r="O48" t="s">
+        <v>80</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>2</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>417</v>
+      </c>
+      <c r="X48" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>420</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>421</v>
+      </c>
+      <c r="J49" t="s">
+        <v>422</v>
+      </c>
+      <c r="K49" t="s">
+        <v>423</v>
+      </c>
+      <c r="L49" t="s">
+        <v>424</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>425</v>
+      </c>
+      <c r="O49" t="s">
+        <v>80</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>417</v>
+      </c>
+      <c r="X49" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>427</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>428</v>
+      </c>
+      <c r="J50" t="s">
+        <v>429</v>
+      </c>
+      <c r="K50" t="s">
+        <v>430</v>
+      </c>
+      <c r="L50" t="s">
+        <v>431</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>432</v>
+      </c>
+      <c r="O50" t="s">
+        <v>80</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>433</v>
+      </c>
+      <c r="X50" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>436</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>437</v>
+      </c>
+      <c r="J51" t="s">
+        <v>438</v>
+      </c>
+      <c r="K51" t="s">
+        <v>439</v>
+      </c>
+      <c r="L51" t="s">
+        <v>440</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="s">
+        <v>432</v>
+      </c>
+      <c r="O51" t="s">
+        <v>80</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>441</v>
+      </c>
+      <c r="X51" t="s">
+        <v>442</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>444</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>445</v>
+      </c>
+      <c r="J52" t="s">
+        <v>446</v>
+      </c>
+      <c r="K52" t="s">
+        <v>447</v>
+      </c>
+      <c r="L52" t="s">
+        <v>448</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>432</v>
+      </c>
+      <c r="O52" t="s">
+        <v>80</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>449</v>
+      </c>
+      <c r="X52" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>452</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>453</v>
+      </c>
+      <c r="J53" t="s">
+        <v>454</v>
+      </c>
+      <c r="K53" t="s">
+        <v>455</v>
+      </c>
+      <c r="L53" t="s">
+        <v>456</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>391</v>
+      </c>
+      <c r="O53" t="s">
+        <v>80</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>457</v>
+      </c>
+      <c r="X53" t="s">
+        <v>458</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>460</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>461</v>
+      </c>
+      <c r="J54" t="s">
+        <v>462</v>
+      </c>
+      <c r="K54" t="s">
+        <v>463</v>
+      </c>
+      <c r="L54" t="s">
+        <v>464</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>391</v>
+      </c>
+      <c r="O54" t="s">
+        <v>80</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>465</v>
+      </c>
+      <c r="X54" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>468</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>469</v>
+      </c>
+      <c r="J55" t="s">
+        <v>470</v>
+      </c>
+      <c r="K55" t="s">
+        <v>471</v>
+      </c>
+      <c r="L55" t="s">
+        <v>472</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>391</v>
+      </c>
+      <c r="O55" t="s">
+        <v>80</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>465</v>
+      </c>
+      <c r="X55" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>474</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>475</v>
+      </c>
+      <c r="J56" t="s">
+        <v>476</v>
+      </c>
+      <c r="K56" t="s">
+        <v>477</v>
+      </c>
+      <c r="L56" t="s">
+        <v>478</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>479</v>
+      </c>
+      <c r="O56" t="s">
+        <v>90</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>480</v>
+      </c>
+      <c r="X56" t="s">
+        <v>481</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>483</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>484</v>
+      </c>
+      <c r="J57" t="s">
+        <v>485</v>
+      </c>
+      <c r="K57" t="s">
+        <v>486</v>
+      </c>
+      <c r="L57" t="s">
+        <v>487</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>488</v>
+      </c>
+      <c r="O57" t="s">
+        <v>70</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>489</v>
+      </c>
+      <c r="X57" t="s">
+        <v>490</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>492</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>493</v>
+      </c>
+      <c r="J58" t="s">
+        <v>494</v>
+      </c>
+      <c r="K58" t="s">
+        <v>495</v>
+      </c>
+      <c r="L58" t="s">
+        <v>496</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>497</v>
+      </c>
+      <c r="O58" t="s">
+        <v>80</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>498</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>499</v>
+      </c>
+      <c r="J59" t="s">
+        <v>500</v>
+      </c>
+      <c r="K59" t="s">
+        <v>501</v>
+      </c>
+      <c r="L59" t="s">
+        <v>502</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>503</v>
+      </c>
+      <c r="O59" t="s">
+        <v>90</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>502</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Denver/Denver_shard_31.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_31.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="769">
   <si>
     <t>STR#</t>
   </si>
@@ -150,18 +150,78 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/01/2018</t>
+    <t>08/30/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r594761217-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>33514</t>
+  </si>
+  <si>
+    <t>225457</t>
+  </si>
+  <si>
+    <t>594761217</t>
+  </si>
+  <si>
+    <t>07/09/2018</t>
+  </si>
+  <si>
+    <t>Sliding doors</t>
+  </si>
+  <si>
+    <t>This was our 4th hotel out of 6 on our trip, and it was our favorite.  Why?  Because sliding doors!!  Our suite had sliding doors that separated the beds from the living room area which gave my husband some more privacy that he was wanting.  It was clean, comfortable, and there were lots of breakfast options (classic comfort suites).MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Bina R, General Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded July 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2018</t>
+  </si>
+  <si>
+    <t>This was our 4th hotel out of 6 on our trip, and it was our favorite.  Why?  Because sliding doors!!  Our suite had sliding doors that separated the beds from the living room area which gave my husband some more privacy that he was wanting.  It was clean, comfortable, and there were lots of breakfast options (classic comfort suites).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r586722671-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>586722671</t>
+  </si>
+  <si>
+    <t>06/11/2018</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>Room was clean and large. Nice size clean  bathroom. Bed was comfortable. Great value. Prompt courteous service and good breakfast too. Nice pool and amenities. Great location.Will definitely stay again. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Bina R, General Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded June 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2018</t>
+  </si>
+  <si>
+    <t>Room was clean and large. Nice size clean  bathroom. Bed was comfortable. Great value. Prompt courteous service and good breakfast too. Nice pool and amenities. Great location.Will definitely stay again. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r586456671-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
   </si>
   <si>
-    <t>33514</t>
-  </si>
-  <si>
-    <t>225457</t>
-  </si>
-  <si>
     <t>586456671</t>
   </si>
   <si>
@@ -177,15 +237,6 @@
     <t>May 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>Bina R, General Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded June 12, 2018</t>
-  </si>
-  <si>
-    <t>Responded June 12, 2018</t>
-  </si>
-  <si>
     <t>I recently experienced an issue with my room and the staff was MORE than accommodating. I sincerely appreciate the ability to approach the staff without hestation. I look forward to returning. Also, this particular location is near; the highway, frontage road, grocery stores, restaurants, etc.Thank YouMore</t>
   </si>
   <si>
@@ -240,6 +291,57 @@
     <t>had to cancel  my reservation for this saturday because the event i was going to was cancel. try to get my reward points but the manager refuse to . i didnt know about the event being cancel until the day of my stay   plus when i made my reservation they told me i had the day of the 19th before 4pm to cancel my room. i though this was a good place to  now i thing it sucks now i lost about 30,00 points hope the manager is happy losting a customer.. they suckMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r577531704-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>577531704</t>
+  </si>
+  <si>
+    <t>05/02/2018</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t>The hotel was fantastic! Our room was spacious &amp; very clean. The staff were extremely accommodating and helpful! We really enjoyed our stay at this hotel, and it is in a great location in Lakewood. Definitely would stay again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Bina R, General Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded May 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2018</t>
+  </si>
+  <si>
+    <t>The hotel was fantastic! Our room was spacious &amp; very clean. The staff were extremely accommodating and helpful! We really enjoyed our stay at this hotel, and it is in a great location in Lakewood. Definitely would stay again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r574961160-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>574961160</t>
+  </si>
+  <si>
+    <t>04/22/2018</t>
+  </si>
+  <si>
+    <t>A solemn trip</t>
+  </si>
+  <si>
+    <t>We traveled to Colorado to attend a memorial service at Ft. Logan Cemetery. We were grieving and asked for a possible earlier check-in time. The staff jumped in to accommodate us and were just super to deal with. I definitely recommend this tucked out of the way hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>Bina R, General Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded April 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2018</t>
+  </si>
+  <si>
+    <t>We traveled to Colorado to attend a memorial service at Ft. Logan Cemetery. We were grieving and asked for a possible earlier check-in time. The staff jumped in to accommodate us and were just super to deal with. I definitely recommend this tucked out of the way hotel.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r573426975-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -258,9 +360,6 @@
     <t>February 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Bina R, General Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded April 16, 2018</t>
   </si>
   <si>
@@ -285,9 +384,6 @@
     <t>Easy check in. Good location wish there was a convenient store closer. Luz at the front desk was great. Did not like Fox news on in the breakfast area. Left a message to see if it could be changed. Also to see if I could get my t.v. to work in my room never heard back I was here 13 nights. On the fourth day I checked back. t.v. got fixed.  The exercise area is very limited. I think since this is a legal cannabis state people must partake in their rooms. The staff was constantly using heavy perfumed agents to fumigate rooms. My allergies were awful if you have allergies do not stay here. The breakfast was the same two things over and over. Which is fine for short stays. There seemed to be really long periods with nobody at the front desk. I called several times never to have calls answered.  MoreShow less</t>
   </si>
   <si>
-    <t>April 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
@@ -327,6 +423,51 @@
     <t>The staff was amazing and friendly. The breakfast was fresh and delicious. The rooms were large with plenty of amenities. All of our needs were taken care of. Definitely going to be coming back to this hotel. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r549758472-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>549758472</t>
+  </si>
+  <si>
+    <t>12/28/2017</t>
+  </si>
+  <si>
+    <t>Very nice, large room</t>
+  </si>
+  <si>
+    <t>We got stuck in the Denver area due to snow. We were heading to the mountains and the pass was closed for the night. Hotel staff were very nice and helpful. Breakfast was good with hot and cold items. We stayed in a suite that had two queens and a pull out sofa. MoreShow less</t>
+  </si>
+  <si>
+    <t>Bina R, General Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded December 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 29, 2017</t>
+  </si>
+  <si>
+    <t>We got stuck in the Denver area due to snow. We were heading to the mountains and the pass was closed for the night. Hotel staff were very nice and helpful. Breakfast was good with hot and cold items. We stayed in a suite that had two queens and a pull out sofa. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r548260031-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>548260031</t>
+  </si>
+  <si>
+    <t>12/20/2017</t>
+  </si>
+  <si>
+    <t>Our stay was fantastic! The staff were courteous and attentive, as well as informational! The atmosphere of the place was very nice. The rooms were especially spacious and clean. Overall, I was very impressed and 10/10 would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Bina R, General Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded December 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 22, 2017</t>
+  </si>
+  <si>
+    <t>Our stay was fantastic! The staff were courteous and attentive, as well as informational! The atmosphere of the place was very nice. The rooms were especially spacious and clean. Overall, I was very impressed and 10/10 would stay here again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r548137057-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -340,12 +481,6 @@
   </si>
   <si>
     <t>We arrived here after a long day of travel. The check in staff were very helpful and courteous. A high point nowadays. Room was clean with plenty of room. Rooms were updated  and fresh. Overall very happy and will definitely  stay again. The location is quiet central to many attractions.MoreShow less</t>
-  </si>
-  <si>
-    <t>Bina R, General Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded December 22, 2017</t>
-  </si>
-  <si>
-    <t>Responded December 22, 2017</t>
   </si>
   <si>
     <t>We arrived here after a long day of travel. The check in staff were very helpful and courteous. A high point nowadays. Room was clean with plenty of room. Rooms were updated  and fresh. Overall very happy and will definitely  stay again. The location is quiet central to many attractions.More</t>
@@ -412,6 +547,51 @@
 In summary:  This hotel is a good value (especially considering it's a room with a living room area) that could use some updates.  Front desk staff was great, and hopefully the pool and hottub renovations...Originally wrote this as a three star review but it's more like 3.5.  I'll round up, why not?Stayed here one night due to a morning business meeting.  Booked the hotel because the pool and hottub area looked the best out of surrounding hotels.  Arrived to find out it was closed for renovation.  Luz at the front desk was super apologetic and offered to refund my reservation.  She was so nice I decided to stay anyways.  My original set of keys did not work but that was quickly resolved by the again very apologetic Luz.  My first floor room was clean though the carpet could stand some refreshing.  Layout is a bit weird but nothing you can't get used to.  Sink had some problems draining quickly.The bed was clean and phenomenal.  Easy to get a good night's sleep. Breakfast the next morning was a good mix of hot sit down foods and grab and go pastries.  I had an appointment so I took advantage of the second.  Shockingly good danish and wish I had grabbed another.  Area around the hotel is nice enough.  Don't have to drive too far to find whatever you might need.  No reason to feel like the area is "sketchy" In summary:  This hotel is a good value (especially considering it's a room with a living room area) that could use some updates.  Front desk staff was great, and hopefully the pool and hottub renovations fix previous problems.  I'll stay again if I'm ever in the area again and look forward to writing a higher star review once the renovation is done.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r536680323-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>536680323</t>
+  </si>
+  <si>
+    <t>10/28/2017</t>
+  </si>
+  <si>
+    <t>Hope the Updates Get Done Soon</t>
+  </si>
+  <si>
+    <t>Every hotel has to update from time to time and that's where this hotel is.  Unfortunately, the pool was STILL green &amp; smelly (after a previous 3-month old review was written) and that shouldn't still be.  The ice well on the 3rd floor ice machine was covered in black mold.  Nasty looking.  Nice breakfast until the 9-yr old soccer kids invaded Friday morning.  No space to sit, noisy as all get out (what happened to "indoor" voices?), and the moms were not trying to lower the volume.  Our first two mornings there appeared to be two homeless persons coming in at the last minute to get breakfast.   I found the girl sleeping in a 2nd floor alcove chair by the elevator when we went to breakfast.  She was in the same clothes the 2nd day and were outside smoking a lot.  I advised the front desk.   Very disconcerting.We liked our room.  Spacious, sleep sofa, and 2-person hot tub.  Didn't use it as safety bars should be installed.It was in a prime spot for restaurants, sightseeing and getting to Golden for Look Out Mountain, Buffalo Bill Cody's grave and the  Coors Tour.We do want to mention Luz, the front desk person for us for 3 days.   She was a delight. Very friendly, helpful with suggestions, directions, and made our stay super.  Thank you Luz!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Bina R, General Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded October 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 29, 2017</t>
+  </si>
+  <si>
+    <t>Every hotel has to update from time to time and that's where this hotel is.  Unfortunately, the pool was STILL green &amp; smelly (after a previous 3-month old review was written) and that shouldn't still be.  The ice well on the 3rd floor ice machine was covered in black mold.  Nasty looking.  Nice breakfast until the 9-yr old soccer kids invaded Friday morning.  No space to sit, noisy as all get out (what happened to "indoor" voices?), and the moms were not trying to lower the volume.  Our first two mornings there appeared to be two homeless persons coming in at the last minute to get breakfast.   I found the girl sleeping in a 2nd floor alcove chair by the elevator when we went to breakfast.  She was in the same clothes the 2nd day and were outside smoking a lot.  I advised the front desk.   Very disconcerting.We liked our room.  Spacious, sleep sofa, and 2-person hot tub.  Didn't use it as safety bars should be installed.It was in a prime spot for restaurants, sightseeing and getting to Golden for Look Out Mountain, Buffalo Bill Cody's grave and the  Coors Tour.We do want to mention Luz, the front desk person for us for 3 days.   She was a delight. Very friendly, helpful with suggestions, directions, and made our stay super.  Thank you Luz!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r536472596-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>536472596</t>
+  </si>
+  <si>
+    <t>10/27/2017</t>
+  </si>
+  <si>
+    <t>Great Management &amp; Staff!!!</t>
+  </si>
+  <si>
+    <t>If you have an issue with anything, the Great Management Staff will help to resolve it! And All Staff is very accommodating!!! If you enjoy supporting good people, stay here!! Oh, and the free breakfast is the BEST EVER!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>If you have an issue with anything, the Great Management Staff will help to resolve it! And All Staff is very accommodating!!! If you enjoy supporting good people, stay here!! Oh, and the free breakfast is the BEST EVER!!!!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r534667378-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -427,9 +607,6 @@
     <t>The hotel was in a great location. Close to everything. Good breakfast, several choices. They also had different hot items to choose from each day &amp; tasted good. The staff was nice &amp; helpful, the room was clean &amp; very nice. Excellent for the money. MoreShow less</t>
   </si>
   <si>
-    <t>October 2017</t>
-  </si>
-  <si>
     <t>Bina R, General Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded October 22, 2017</t>
   </si>
   <si>
@@ -487,6 +664,57 @@
     <t>Clean room- good hot breakfast-staff friendly.  Only suggestion is when at pool/hot tub room people can look in when getting breakfast- put blinds up for privacy. Uncomfortable having people stare at you when enjoying an early morning swimMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r530264491-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>530264491</t>
+  </si>
+  <si>
+    <t>10/05/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Hotel For Extended Stay </t>
+  </si>
+  <si>
+    <t>My family and I had bad experience at the Hampton Inn off Wadsworth so we moved hotels, we totally we're happy with the change. This hotel made us feel comfortable and is more of a family hotel. We got a 2 queen suite and it was amazing! Very nice staff. BEST BREAKFAST!! The Breakfast attendant even let us keep serving after 10AM and she just kept on making food keeping the food stocked the entire time we were eating. Front desk was okay only a little rude because she said, "I'm New". Did I also mention the Pool and Hot Tub!!!! It was great after working out at the gym. I really recommend this place if you are staying longer than 3 days.. It's totally worth every penny. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Bina R, General Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded October 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 6, 2017</t>
+  </si>
+  <si>
+    <t>My family and I had bad experience at the Hampton Inn off Wadsworth so we moved hotels, we totally we're happy with the change. This hotel made us feel comfortable and is more of a family hotel. We got a 2 queen suite and it was amazing! Very nice staff. BEST BREAKFAST!! The Breakfast attendant even let us keep serving after 10AM and she just kept on making food keeping the food stocked the entire time we were eating. Front desk was okay only a little rude because she said, "I'm New". Did I also mention the Pool and Hot Tub!!!! It was great after working out at the gym. I really recommend this place if you are staying longer than 3 days.. It's totally worth every penny. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r527597738-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>527597738</t>
+  </si>
+  <si>
+    <t>09/26/2017</t>
+  </si>
+  <si>
+    <t>Nice hotel, staff needs better training</t>
+  </si>
+  <si>
+    <t>The hotel room itself is nice - large room, clean, comfortable bed (though I wish they wouldn't stuff the pillows like sausages!)But my interactions with the staff left something to be desired.  I found a pool of water at the base of the toilet and called the front desk to let them know.  The woman who took my call seemed completely confused about what to do with the information.  Finally I said to her, "I'll take care of this tonight and you can let your maintenance team know tomorrow, right?"  She seemed relieved that I had given her a course of action.  In the morning my plans had changed so I needed to check out early.  Again, a different front desk person seemed completely befuddled about how to handle that.MoreShow less</t>
+  </si>
+  <si>
+    <t>Bina R, General Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded September 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 27, 2017</t>
+  </si>
+  <si>
+    <t>The hotel room itself is nice - large room, clean, comfortable bed (though I wish they wouldn't stuff the pillows like sausages!)But my interactions with the staff left something to be desired.  I found a pool of water at the base of the toilet and called the front desk to let them know.  The woman who took my call seemed completely confused about what to do with the information.  Finally I said to her, "I'll take care of this tonight and you can let your maintenance team know tomorrow, right?"  She seemed relieved that I had given her a course of action.  In the morning my plans had changed so I needed to check out early.  Again, a different front desk person seemed completely befuddled about how to handle that.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r525730656-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -500,9 +728,6 @@
   </si>
   <si>
     <t>We stayed at the Comfort Suites in Lakewood ahead of a Utah road trip.  Our stay was comfortable and convenient with no complaints at all.  Check in was easy and staff helpful.  The free breakfast was very good with many hot and cold options.  Would consider this lodging option again if we are in the Lakewood area in the future.  Recommended!MoreShow less</t>
-  </si>
-  <si>
-    <t>September 2017</t>
   </si>
   <si>
     <t xml:space="preserve"> traveled with friends</t>
@@ -574,6 +799,57 @@
 Did not use the pool, so cannot comment on that, but we appreciated the free breakfast (with waffles) and ate at the hotel every morning before venturing out....Our family stayed here for 4 days in August during the Denver part of our trip out west.  Hotels in/near downtown Denver were much more expensive, so we chose this hotel based, in part, on its affordability and proximity to all of the activities we had planned.  We were not disappointed.  It was a short drive to downtown Denver, and was situated very close to Red Rocks as well.  We were pleased with our room as well. We had a suite, which was perfect for two adults and two younger boys.  There was a door that separated the bedroom from the rest of the suite, which was nice as it allowed for some privacy.  We were happy to have the extra space and the pullout couch as well.  Two televisions are provided for each sleeping area.One minor complaint about the room - the sink is not in the bathroom - it's near the entrance in the portion of the room where the pullout sofa was.  On one hand, it was nice to be able to use the sink while somebody else was occupying the bathroom, but with somebody sleeping on the pullout sofa, it wasn't always convenient.  Very minor point that probably wouldn't be an issue when traveling with fewer people.Did not use the pool, so cannot comment on that, but we appreciated the free breakfast (with waffles) and ate at the hotel every morning before venturing out.In summary - we had a clean, comfortable room that was conveniently located and quite affordable.  I would definitely stay here again if I find myself back in the area.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r512234259-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>512234259</t>
+  </si>
+  <si>
+    <t>08/13/2017</t>
+  </si>
+  <si>
+    <t>Decent Hotel</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel in June of 2017. I found it to be clean and tidy. The management was thoughtful and nice. The room was ok for one night and the ben was comfortable. The breakfast was good and had lots of choices.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Bina R, General Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded August 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2017</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel in June of 2017. I found it to be clean and tidy. The management was thoughtful and nice. The room was ok for one night and the ben was comfortable. The breakfast was good and had lots of choices.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r509690000-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>509690000</t>
+  </si>
+  <si>
+    <t>08/07/2017</t>
+  </si>
+  <si>
+    <t>Ants in the bed, manager says it's our fault</t>
+  </si>
+  <si>
+    <t>Disgusted at how the manager treated us after bringing this to their attention. She blamed us for bringing ants into our room because we ate pizza in the room.  We are here for 4 nights and on day 2 we started noticing ants in the beds, on top of counters and even in drawers.  I told the manager that my 4 year old daughter was staying with us and this was unacceptable. She said she would move us to another room or we can stay somewhere else.  I asked her to compensate us for this disgusting situation and she threatened to kick us out because I said this was going on TripAdvisor.  We woke up to ANTS in our bed.  We have stayed here numerous times when we come to Denver.  We will never again stay in a ant infested motel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Bina R, General Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded August 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2017</t>
+  </si>
+  <si>
+    <t>Disgusted at how the manager treated us after bringing this to their attention. She blamed us for bringing ants into our room because we ate pizza in the room.  We are here for 4 nights and on day 2 we started noticing ants in the beds, on top of counters and even in drawers.  I told the manager that my 4 year old daughter was staying with us and this was unacceptable. She said she would move us to another room or we can stay somewhere else.  I asked her to compensate us for this disgusting situation and she threatened to kick us out because I said this was going on TripAdvisor.  We woke up to ANTS in our bed.  We have stayed here numerous times when we come to Denver.  We will never again stay in a ant infested motel.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r508267744-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -613,9 +889,6 @@
     <t>Nice hotel in a good location. It was clean and well cared for. The beds were comfy and it was fairly quiet. My only complaint is that when we came down to breakfast at about 8:30-9:00 am on Saturday morning, they were out of hot food and there was no where to sit. My understanding was that breakfast was supposed to be available until 9:30. We grabbed some pastries to take up to our room, but there weren't many of those left either. My son tried to get a cup of orange juice, but it was practically just water. So we ended up going to McDonald's for breakfast. But other than the lack of breakfast, it was a great stay.MoreShow less</t>
   </si>
   <si>
-    <t>June 2017</t>
-  </si>
-  <si>
     <t>Bina R, General Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded July 6, 2017</t>
   </si>
   <si>
@@ -640,15 +913,71 @@
     <t>Room on the first floor aggravated my asthma. Between the chlorine from the pool and the supposedly smoke free room (which smelled musty like stale smoke) I was having a hard time breathing. Housekeeping neglected our room on the second night- ran out of tissues and t.paper, not to mention clean towels. Shared concerns with the desk clerk on duty and received a half hearted apology. Unfortunately we will not be returning to this location.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r488084525-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>488084525</t>
+  </si>
+  <si>
+    <t>05/26/2017</t>
+  </si>
+  <si>
+    <t>Great Stay, but that chlorine!</t>
+  </si>
+  <si>
+    <t>I travel around the world and couldn't have been more impressed with this Comfort Suites! We checked in on the 22nd of May and checked out the 23rd! The room had a partition that divided the main sleeping area from the living area which is a first I have seen at this brand.  The room was recently renovated and the beds were most comfortable!
+The property is in great shape although there was one issue:  the pool and specifically the hot tub had a very large concentration of chlorine in it. So much so that it burned your eyes even when you walked into the pool area. 
+As far as the staff: I have nothing but praise for the Front Desk Agent who checked us in! It was her first day on the job and though she had questions for her colleague on procedures to check us in, she was very pleasant and accommodating!
+We did have issues at check out, my partner went to the front desk to change the method of payment and was very curtly told that it wasn't possible to change the method of payment as the card had already been authorized. I know this not to be true as I have worked for a variety of hotel companies (including Choice).  Anyways, I had spoken with Art and he apologized and was able to rectify the issue.
+Overall it was a fantastic stay, and I hope...I travel around the world and couldn't have been more impressed with this Comfort Suites! We checked in on the 22nd of May and checked out the 23rd! The room had a partition that divided the main sleeping area from the living area which is a first I have seen at this brand.  The room was recently renovated and the beds were most comfortable!The property is in great shape although there was one issue:  the pool and specifically the hot tub had a very large concentration of chlorine in it. So much so that it burned your eyes even when you walked into the pool area. As far as the staff: I have nothing but praise for the Front Desk Agent who checked us in! It was her first day on the job and though she had questions for her colleague on procedures to check us in, she was very pleasant and accommodating!We did have issues at check out, my partner went to the front desk to change the method of payment and was very curtly told that it wasn't possible to change the method of payment as the card had already been authorized. I know this not to be true as I have worked for a variety of hotel companies (including Choice).  Anyways, I had spoken with Art and he apologized and was able to rectify the issue.Overall it was a fantastic stay, and I hope when I am back in the Lakewood area, I can stay at this property again!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Tim A, Owner at Comfort Suites Lakewood Denver, responded to this reviewResponded May 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2017</t>
+  </si>
+  <si>
+    <t>I travel around the world and couldn't have been more impressed with this Comfort Suites! We checked in on the 22nd of May and checked out the 23rd! The room had a partition that divided the main sleeping area from the living area which is a first I have seen at this brand.  The room was recently renovated and the beds were most comfortable!
+The property is in great shape although there was one issue:  the pool and specifically the hot tub had a very large concentration of chlorine in it. So much so that it burned your eyes even when you walked into the pool area. 
+As far as the staff: I have nothing but praise for the Front Desk Agent who checked us in! It was her first day on the job and though she had questions for her colleague on procedures to check us in, she was very pleasant and accommodating!
+We did have issues at check out, my partner went to the front desk to change the method of payment and was very curtly told that it wasn't possible to change the method of payment as the card had already been authorized. I know this not to be true as I have worked for a variety of hotel companies (including Choice).  Anyways, I had spoken with Art and he apologized and was able to rectify the issue.
+Overall it was a fantastic stay, and I hope...I travel around the world and couldn't have been more impressed with this Comfort Suites! We checked in on the 22nd of May and checked out the 23rd! The room had a partition that divided the main sleeping area from the living area which is a first I have seen at this brand.  The room was recently renovated and the beds were most comfortable!The property is in great shape although there was one issue:  the pool and specifically the hot tub had a very large concentration of chlorine in it. So much so that it burned your eyes even when you walked into the pool area. As far as the staff: I have nothing but praise for the Front Desk Agent who checked us in! It was her first day on the job and though she had questions for her colleague on procedures to check us in, she was very pleasant and accommodating!We did have issues at check out, my partner went to the front desk to change the method of payment and was very curtly told that it wasn't possible to change the method of payment as the card had already been authorized. I know this not to be true as I have worked for a variety of hotel companies (including Choice).  Anyways, I had spoken with Art and he apologized and was able to rectify the issue.Overall it was a fantastic stay, and I hope when I am back in the Lakewood area, I can stay at this property again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r486252795-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>486252795</t>
+  </si>
+  <si>
+    <t>05/21/2017</t>
+  </si>
+  <si>
+    <t>Visit to a surprised daughter</t>
+  </si>
+  <si>
+    <t>We requested a 2 bed room near the pool and we got it. A spacious first floor room, technically a suite. Front desk staff, especially Art, were always helpful and knowledgible. Room was clean and quiet. Breakfast was varied and always restocked. A true clean, well maintained hotel with a view of the snow covered mountains.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tim A, General Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded May 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 25, 2017</t>
+  </si>
+  <si>
+    <t>We requested a 2 bed room near the pool and we got it. A spacious first floor room, technically a suite. Front desk staff, especially Art, were always helpful and knowledgible. Room was clean and quiet. Breakfast was varied and always restocked. A true clean, well maintained hotel with a view of the snow covered mountains.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r486215700-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
   </si>
   <si>
     <t>486215700</t>
   </si>
   <si>
-    <t>05/21/2017</t>
-  </si>
-  <si>
     <t>Good Stay</t>
   </si>
   <si>
@@ -658,12 +987,6 @@
     <t>April 2017</t>
   </si>
   <si>
-    <t>Tim A, General Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded May 25, 2017</t>
-  </si>
-  <si>
-    <t>Responded May 25, 2017</t>
-  </si>
-  <si>
     <t>The lobby area is nice. Good breakfast. Our room was clean and comfortable. We will be staying here again. The pool looked inviting though we did not swim. Staff was friendly and helpful. No complaints from this stay!I should add that it is located close to Red rocks and several other parks!More</t>
   </si>
   <si>
@@ -682,9 +1005,6 @@
     <t>I stayed one weeknight at this property and was very impressed with the room:  very clean, spacious, two flat screen TVs, refrigerator/microwave, and decent TV channel availability.  The morning breakfast was one of the best hotel breakfasts I've experienced - many fresh choices.  Staff were helpful and courteous.  This hotel ranks in the TOP 5% of places I have stayed over the years.  Stay here!MoreShow less</t>
   </si>
   <si>
-    <t>May 2017</t>
-  </si>
-  <si>
     <t>I stayed one weeknight at this property and was very impressed with the room:  very clean, spacious, two flat screen TVs, refrigerator/microwave, and decent TV channel availability.  The morning breakfast was one of the best hotel breakfasts I've experienced - many fresh choices.  Staff were helpful and courteous.  This hotel ranks in the TOP 5% of places I have stayed over the years.  Stay here!More</t>
   </si>
   <si>
@@ -712,6 +1032,48 @@
     <t>I had a great stay at this property. The service was excellent. Everything was clean and comfortable. The breakfast was one of the best I've had at a hotel. The location was perfect. About an hour away from Rocky Mt. National Park and Garden of the Gods. Twenty minutes to Red Rocks. And close to shopping and eating (check out the Old Chicago pizza place - great food and delicious beer). I highly recommend you stay here.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r475081602-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>475081602</t>
+  </si>
+  <si>
+    <t>04/12/2017</t>
+  </si>
+  <si>
+    <t>Inappropriately dressed front desk clerk</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel prior to a business meeting.  When I arrived, the gal at the front desk was competent however she was inappropriately dressed.  She was wearing a button up top with the Comfort Suites logo but the first 4 buttons were undone and although she had on a camisole her bust was not sufficiently covered for the type of environment in which she works.  It was uncomfortable to talk with her.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tim A, Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded April 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 14, 2017</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel prior to a business meeting.  When I arrived, the gal at the front desk was competent however she was inappropriately dressed.  She was wearing a button up top with the Comfort Suites logo but the first 4 buttons were undone and although she had on a camisole her bust was not sufficiently covered for the type of environment in which she works.  It was uncomfortable to talk with her.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r474613861-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>474613861</t>
+  </si>
+  <si>
+    <t>04/11/2017</t>
+  </si>
+  <si>
+    <t>Great Rate Great breatfast</t>
+  </si>
+  <si>
+    <t>Staff outstanding , hot breakfast avg with eggs two meats and potatoes  Had to watch MSNBC wish they had have something less political on like the weather channel in the breakfast area. This was my first time here but if I am back in the area I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Staff outstanding , hot breakfast avg with eggs two meats and potatoes  Had to watch MSNBC wish they had have something less political on like the weather channel in the breakfast area. This was my first time here but if I am back in the area I would stay here again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r472806295-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -773,6 +1135,45 @@
   </si>
   <si>
     <t>We've stayed at most of the many hotels in this area. There is none better. The rooms are truly suites. The separate "sitting room/living room" is LARGE with a sleeper sofa and chair. It has its own flat screen TV in addition to the one in the bedroom area. The "dorm style" refrigerator is new and the interior is well laid out with a small freezer space. It is located in the "bar serving" area that has its own sink and overhead microwave leaving the surface area free and providing overhead storage. I stayed in an old "Amerisuites" facility for 3 weeks on a job transfer. I wished I had this kind of room. A business person could comfortably stay here for a more extended time and not feel cramped. The beds were new and comfortable. The entire facility is fairly new and well appointed for its price point. Breakfast was exceptionally good with small cheese omelets with green chili to pour over them. The blueberry muffins were very good and moist. The location is convenient to everywhere in the SW metro Denver area with many restaurants and shopping close by. I am a VERY critical traveler and hard to please. This facility will not disappoint.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r434125739-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>434125739</t>
+  </si>
+  <si>
+    <t>11/02/2016</t>
+  </si>
+  <si>
+    <t>Accomanying a friend who was a patient at Swedish Hospital</t>
+  </si>
+  <si>
+    <t>We needed a nice place to stay while our friend was undergoing treatment at Swedish Hospital in Denver. We live in Gunnison, 200 miles and 4 driving hours away from Denver and some medical specialties require "road trips" for proper treatment.  This Comfort Suites has very friendly and helpful staff, great accommodations, and a pretty decent breakfast. They understood our situation and did what they could to relieve the stress we were under and we could not have asked for a better place. One can be sure that if we go to Denver we will definitely stay at this property.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r432893153-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>432893153</t>
+  </si>
+  <si>
+    <t>10/30/2016</t>
+  </si>
+  <si>
+    <t>We were pleasantly surprised how spacious, clean and comfortable our room was. The bed was very comfortable and linens were nice. The breakfast was excellent, far better than most hotels. Hotels in the Denver area are expensive, and this one was a good value for its price. We would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lori J, Guest Relations Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded October 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2016</t>
+  </si>
+  <si>
+    <t>We were pleasantly surprised how spacious, clean and comfortable our room was. The bed was very comfortable and linens were nice. The breakfast was excellent, far better than most hotels. Hotels in the Denver area are expensive, and this one was a good value for its price. We would definitely stay here again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r432488555-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
@@ -791,15 +1192,6 @@
 QUICK BIT ON THE LOCATION: Wadsworth (the main street in front of the hotel) is very busy throughout the day, and especially during rush hour. During my stay here there was a lot of construction on the road, which made traffic even more congested. Most of the construction started about a mile away from...I came for a 2-day stay and checked in during the late afternoon 10/26. The girl at the desk was friendly and helpful. My room (I believe it was the standard King) exceeded my expectations. It was very clean, everything (except the hair dryer that I wasn't really planning on using anyway) worked as it should, and it was a comfortable size. There was a tv in the sitting area and by the bed (I'm not sure how this would work out with a larger group as there is no door separating the rooms/noise). The hotel overall was fairly quiet despite the parking lot being filled with cars by the time I came back later in the evening. I parked in the back, which has easy access into the building through the breakfast area. I ended up preferring this since I could see my car from my room. The only downside is there wasn't much of a view. The breakfast was not bad at all. Definitely something to hold you over until lunch at least. If you're a picky eater it may be below your standards. QUICK BIT ON THE LOCATION: Wadsworth (the main street in front of the hotel) is very busy throughout the day, and especially during rush hour. During my stay here there was a lot of construction on the road, which made traffic even more congested. Most of the construction started about a mile away from the hotel. Drive defensively! Aside from that, there are plenty of banks, gas stations and restaurants up and down this main road. Plenty of stores nearby for you to grab anything you could possibly need. The area itself is okay as well; definitely not posh, but you're not in a low class neighborhood either. I wouldn't be particularly afraid of walking alone at night.Hope this review helps someone. I would stay here again!MoreShow less</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
-    <t>Lori J, Guest Relations Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded October 31, 2016</t>
-  </si>
-  <si>
-    <t>Responded October 31, 2016</t>
-  </si>
-  <si>
     <t>I came for a 2-day stay and checked in during the late afternoon 10/26. The girl at the desk was friendly and helpful. My room (I believe it was the standard King) exceeded my expectations. It was very clean, everything (except the hair dryer that I wasn't really planning on using anyway) worked as it should, and it was a comfortable size. There was a tv in the sitting area and by the bed (I'm not sure how this would work out with a larger group as there is no door separating the rooms/noise). The hotel overall was fairly quiet despite the parking lot being filled with cars by the time I came back later in the evening. I parked in the back, which has easy access into the building through the breakfast area. I ended up preferring this since I could see my car from my room. The only downside is there wasn't much of a view. The breakfast was not bad at all. Definitely something to hold you over until lunch at least. If you're a picky eater it may be below your standards. 
 QUICK BIT ON THE LOCATION: Wadsworth (the main street in front of the hotel) is very busy throughout the day, and especially during rush hour. During my stay here there was a lot of construction on the road, which made traffic even more congested. Most of the construction started about a mile away from...I came for a 2-day stay and checked in during the late afternoon 10/26. The girl at the desk was friendly and helpful. My room (I believe it was the standard King) exceeded my expectations. It was very clean, everything (except the hair dryer that I wasn't really planning on using anyway) worked as it should, and it was a comfortable size. There was a tv in the sitting area and by the bed (I'm not sure how this would work out with a larger group as there is no door separating the rooms/noise). The hotel overall was fairly quiet despite the parking lot being filled with cars by the time I came back later in the evening. I parked in the back, which has easy access into the building through the breakfast area. I ended up preferring this since I could see my car from my room. The only downside is there wasn't much of a view. The breakfast was not bad at all. Definitely something to hold you over until lunch at least. If you're a picky eater it may be below your standards. QUICK BIT ON THE LOCATION: Wadsworth (the main street in front of the hotel) is very busy throughout the day, and especially during rush hour. During my stay here there was a lot of construction on the road, which made traffic even more congested. Most of the construction started about a mile away from the hotel. Drive defensively! Aside from that, there are plenty of banks, gas stations and restaurants up and down this main road. Plenty of stores nearby for you to grab anything you could possibly need. The area itself is okay as well; definitely not posh, but you're not in a low class neighborhood either. I wouldn't be particularly afraid of walking alone at night.Hope this review helps someone. I would stay here again!More</t>
   </si>
@@ -843,6 +1235,42 @@
     <t>Stayed at comfort suites 2 nights.  This is very easy to find in Lakewood.  Clean, comfortable, and very nice space. I would recommend to anyone that is looking for a nice place to stay.  It serves a nice complimentary breakfast.  Adequate parking and just down the street is a Denny's that has just been remodeled open 24/7.  Just off of Wadsworth .More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r429471968-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>429471968</t>
+  </si>
+  <si>
+    <t>10/18/2016</t>
+  </si>
+  <si>
+    <t>Vacation</t>
+  </si>
+  <si>
+    <t>Room was very clean staff were very friendly and helpful,good location,easy access to all major locations , Estes park,red rocks amphitheatre, and Mother Cabrini shrine the view from our room wasn't much too look at as there was a big tree blocking the viewMoreShow less</t>
+  </si>
+  <si>
+    <t>Room was very clean staff were very friendly and helpful,good location,easy access to all major locations , Estes park,red rocks amphitheatre, and Mother Cabrini shrine the view from our room wasn't much too look at as there was a big tree blocking the viewMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r428888232-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>428888232</t>
+  </si>
+  <si>
+    <t>10/17/2016</t>
+  </si>
+  <si>
+    <t>Perfect location</t>
+  </si>
+  <si>
+    <t>We were in town for a Jimmy Buffett concert at Red Rocks and the location of the hotel couldn't have been better.  Everything was very clean and the breakfast buffet was well stocked. I would definitely stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were in town for a Jimmy Buffett concert at Red Rocks and the location of the hotel couldn't have been better.  Everything was very clean and the breakfast buffet was well stocked. I would definitely stay there again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r425345144-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -903,6 +1331,42 @@
     <t>Fantastic stay! Huge room! Comfy beds! Great breakfast and in room coffee makers stocked with Seattle's Best! Thank you!!! I will be back and stay here the next time I am in the Lakewood-Denver area!!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r414414348-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>414414348</t>
+  </si>
+  <si>
+    <t>09/03/2016</t>
+  </si>
+  <si>
+    <t>Clean room, but musty smell</t>
+  </si>
+  <si>
+    <t>We checked in and were originally assigned a room that smelled so musty there was no way we could stay.  After complaining, We were assigned a second room that was better but still smelled musty.  The room was very clean, just smelled bad.  The breakfast was good.  The hotel is not really near anything touristy.MoreShow less</t>
+  </si>
+  <si>
+    <t>We checked in and were originally assigned a room that smelled so musty there was no way we could stay.  After complaining, We were assigned a second room that was better but still smelled musty.  The room was very clean, just smelled bad.  The breakfast was good.  The hotel is not really near anything touristy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r413740249-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>413740249</t>
+  </si>
+  <si>
+    <t>09/01/2016</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>We stayed with our 2 kids so it was nice to have the pullout sofa so they didn't have to share a bed.  There were no blankets for the bed though. Our room was quiet. The staff was very nice. The breakfast was great. Kids and I loved the waffles, husband loved the sausage and eggs. They also have washers and dryers available, but you should bring your own quarters the front desk was only able to give $4 worth which got us 1 load washed and dried. Would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed with our 2 kids so it was nice to have the pullout sofa so they didn't have to share a bed.  There were no blankets for the bed though. Our room was quiet. The staff was very nice. The breakfast was great. Kids and I loved the waffles, husband loved the sausage and eggs. They also have washers and dryers available, but you should bring your own quarters the front desk was only able to give $4 worth which got us 1 load washed and dried. Would definitely stay here again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r406797165-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -960,6 +1424,48 @@
     <t>We stayed there for one night and the hotel was fabulous. The front desk man was very friendly and quick. The breakfast had variety and was very delicious. Overall it was an amazing hotel experience and one you would expect from Comfort Suites.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r400827288-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>400827288</t>
+  </si>
+  <si>
+    <t>08/03/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best ever </t>
+  </si>
+  <si>
+    <t>Simply it was the best hotel.....looks like the motel is being remodeled.....just keep it up......you guys are doing good. Walls are extremely happy. Stay here for sure.....I really love this place. The whole building looks super new.....it's so excited to be here.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r384186371-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>384186371</t>
+  </si>
+  <si>
+    <t>06/20/2016</t>
+  </si>
+  <si>
+    <t>Four Night Stay During Super Bowl Week</t>
+  </si>
+  <si>
+    <t>Stayed here due to location near to friends we were visiting.  It just happened to be Super Bowl week and the Broncos were playing, so quite a lively time to be in Denver. This hotel was very good value, but needs a bit of maintenance.  Rooms seemed dated but clean. Bed very comfy and enjoyed the kitchenette facilities.  However, as in alot of Denver hotels, the waft of marijuana was present in parts of the hotel.I had a mixup with the reservation:  accidently booked two rooms when I meant one, and the nonrefundable rate made it unable to fix.  However, the front desk took care of it immediately at checkin.  Thanks!Still, we had a good stay and would recommend if you get a good rate.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Chris H, General Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded June 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here due to location near to friends we were visiting.  It just happened to be Super Bowl week and the Broncos were playing, so quite a lively time to be in Denver. This hotel was very good value, but needs a bit of maintenance.  Rooms seemed dated but clean. Bed very comfy and enjoyed the kitchenette facilities.  However, as in alot of Denver hotels, the waft of marijuana was present in parts of the hotel.I had a mixup with the reservation:  accidently booked two rooms when I meant one, and the nonrefundable rate made it unable to fix.  However, the front desk took care of it immediately at checkin.  Thanks!Still, we had a good stay and would recommend if you get a good rate.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r382286336-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -1041,6 +1547,36 @@
     <t>This place is great! The facilities are in excellent shape. My room was immaculate!! The bed was comfy. The guy at the front desk was very friendly and conversational. It's also in a good location. I had a very good stay!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r378586583-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>378586583</t>
+  </si>
+  <si>
+    <t>06/01/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel, close to Fort Logan</t>
+  </si>
+  <si>
+    <t>We stayed here while visiting Fort Logan Military Cemetary. Easy check in, very nice front desk staff.Room was very large and comfortable. Tv's in the bedroom and sitting room. Very limited food choices within walking distance. Eat before checking in!We would stay again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r372719200-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>372719200</t>
+  </si>
+  <si>
+    <t>05/13/2016</t>
+  </si>
+  <si>
+    <t>Pleasant Surprise</t>
+  </si>
+  <si>
+    <t>I stayed at this property by default when my "usual" hotel in this area was sold out. I travel to Denver a couple times a month on business. As someone in the hotel business myself, I am usually very selective and typical stay only at boutique hotels. I was pleasantly surprised by this property. Upon my return 2 weeks later, I chose to book directly with the property. Solid amenities, very clean and good service will have me certain to be a repeat customer in the future.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r371625768-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -1098,6 +1634,44 @@
     <t>The customer service was great from top to bottom. Even the maintenance person (I think his name was Kelvin, Kevin or Calvin) was friendly and extremely helpful. He was truly a delight. He spoke to us and gave us directions to a local restaurant. He even sought us out in the lobby to ask how our meal was after the fact. It was nice because anyone other than front desk staff usually will not smile or speak- or even make eye contact. He was nice and his demeanor remained the same for our entire stay. There was also a front desk person who was awesome. I can't remember her name but overall the customer service was out of this world. GREAT PLACE TO STAY!!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r365899138-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>365899138</t>
+  </si>
+  <si>
+    <t>04/20/2016</t>
+  </si>
+  <si>
+    <t>Careful with prices</t>
+  </si>
+  <si>
+    <t>I had time enough to calm down in order to write this review. We (my husband, his service dog and I) were here at the beginning of the month (April 2016).  We were expecting closing time for our property. The room was as I expected: clean, lots of space, a small living room and two tv sets, which seem to me a little too much. Nice bed. We were in the first floor and our room was next to the small gym, we felt every single movement in the treadmill till 10pm when they close it. I mean our bed really moved like a small earthquake. So be careful, you're already warned. 
+My complaint was that you can't pay in advance for 2 weeks. I paid in advance for one and at the end of it, I wanted to pay for the second one. Be careful too. THEY TOTALLY DOUBLED THE PRICE. They were wanting us to pay more than double for the same room. I understand that rates are variable, but DOUBLE was outrageous! Did I mention that I was asking the amount for paying with enough time to not be surprised? Well, they tell that it doesn't appear in the computer so you have to vacate the place in a hurry if you don't agree with their pricing, otherwise they will charge you another day. They made me lose an appointment in order to carry all our stuff...I had time enough to calm down in order to write this review. We (my husband, his service dog and I) were here at the beginning of the month (April 2016).  We were expecting closing time for our property. The room was as I expected: clean, lots of space, a small living room and two tv sets, which seem to me a little too much. Nice bed. We were in the first floor and our room was next to the small gym, we felt every single movement in the treadmill till 10pm when they close it. I mean our bed really moved like a small earthquake. So be careful, you're already warned. My complaint was that you can't pay in advance for 2 weeks. I paid in advance for one and at the end of it, I wanted to pay for the second one. Be careful too. THEY TOTALLY DOUBLED THE PRICE. They were wanting us to pay more than double for the same room. I understand that rates are variable, but DOUBLE was outrageous! Did I mention that I was asking the amount for paying with enough time to not be surprised? Well, they tell that it doesn't appear in the computer so you have to vacate the place in a hurry if you don't agree with their pricing, otherwise they will charge you another day. They made me lose an appointment in order to carry all our stuff to another place. A total inconvenience!  The employees tried to help a lot but the manager had no courage to appear in front of me. The lady at the counter was trying to help me find discounts  (senior's, military (my husband is a vet) whatever in order to save us the stress) but even though it finished being double the amount of the previous week. Even though, the sensation of being two old people being abused is still with us.If you are traveling for more than a week, be careful! Learn from our experience and try to figure out the rates.MoreShow less</t>
+  </si>
+  <si>
+    <t>I had time enough to calm down in order to write this review. We (my husband, his service dog and I) were here at the beginning of the month (April 2016).  We were expecting closing time for our property. The room was as I expected: clean, lots of space, a small living room and two tv sets, which seem to me a little too much. Nice bed. We were in the first floor and our room was next to the small gym, we felt every single movement in the treadmill till 10pm when they close it. I mean our bed really moved like a small earthquake. So be careful, you're already warned. 
+My complaint was that you can't pay in advance for 2 weeks. I paid in advance for one and at the end of it, I wanted to pay for the second one. Be careful too. THEY TOTALLY DOUBLED THE PRICE. They were wanting us to pay more than double for the same room. I understand that rates are variable, but DOUBLE was outrageous! Did I mention that I was asking the amount for paying with enough time to not be surprised? Well, they tell that it doesn't appear in the computer so you have to vacate the place in a hurry if you don't agree with their pricing, otherwise they will charge you another day. They made me lose an appointment in order to carry all our stuff...I had time enough to calm down in order to write this review. We (my husband, his service dog and I) were here at the beginning of the month (April 2016).  We were expecting closing time for our property. The room was as I expected: clean, lots of space, a small living room and two tv sets, which seem to me a little too much. Nice bed. We were in the first floor and our room was next to the small gym, we felt every single movement in the treadmill till 10pm when they close it. I mean our bed really moved like a small earthquake. So be careful, you're already warned. My complaint was that you can't pay in advance for 2 weeks. I paid in advance for one and at the end of it, I wanted to pay for the second one. Be careful too. THEY TOTALLY DOUBLED THE PRICE. They were wanting us to pay more than double for the same room. I understand that rates are variable, but DOUBLE was outrageous! Did I mention that I was asking the amount for paying with enough time to not be surprised? Well, they tell that it doesn't appear in the computer so you have to vacate the place in a hurry if you don't agree with their pricing, otherwise they will charge you another day. They made me lose an appointment in order to carry all our stuff to another place. A total inconvenience!  The employees tried to help a lot but the manager had no courage to appear in front of me. The lady at the counter was trying to help me find discounts  (senior's, military (my husband is a vet) whatever in order to save us the stress) but even though it finished being double the amount of the previous week. Even though, the sensation of being two old people being abused is still with us.If you are traveling for more than a week, be careful! Learn from our experience and try to figure out the rates.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r365426526-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>365426526</t>
+  </si>
+  <si>
+    <t>04/19/2016</t>
+  </si>
+  <si>
+    <t>Great Place to stay!</t>
+  </si>
+  <si>
+    <t>Was well taken care of by the staff.  Room was clean and had everything you'd need for a short stay.  Lots of restaurants within walking distance.  Thanks Chris, Manager, for making sure my stay was perfect.  Will definitely return on my next visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>Was well taken care of by the staff.  Room was clean and had everything you'd need for a short stay.  Lots of restaurants within walking distance.  Thanks Chris, Manager, for making sure my stay was perfect.  Will definitely return on my next visit.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r365272624-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -1167,6 +1741,45 @@
     <t>This was a great stay. The staff was always warm and welcoming with a great smile that made us feel more the just a guest. The breakfast was fresh and hot and the green Chile was great on the eggs. The room was clean and the bed was out of this world. When we come back for a concert at Red Rock this summer this will be are hotel.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r363442778-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>363442778</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>The hotel was good for the short stay that I had.  The front desk was very receptive upon check-in and a snack being a choice privilege member was a bonus. The room was clean and quiet.  Unfortunately, I did not use the pool during my stay but peeked in.  It looked clean and good for families.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel was good for the short stay that I had.  The front desk was very receptive upon check-in and a snack being a choice privilege member was a bonus. The room was clean and quiet.  Unfortunately, I did not use the pool during my stay but peeked in.  It looked clean and good for families.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r362910348-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>362910348</t>
+  </si>
+  <si>
+    <t>04/09/2016</t>
+  </si>
+  <si>
+    <t>They Do Not Follow Through</t>
+  </si>
+  <si>
+    <t>The room was great. I liked the suite, it was comfortable, well appointed, clean and comfortable. I have also stayed at the sister motel next door, this one is a much quieter, cleaner and more comfortable property.You will see in other reviews that promises and offers are made, then not kept. This was also my experience. On checking in I was, as a Choice Privileges Member, offered a snack or 250 bonus points. As they say, "A bird in the hand is worth two in the bush." I should have gone with the snack as the bonus points were not added to my account, just the points I earned according to the Choice Privileges program.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris H, Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded April 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2016</t>
+  </si>
+  <si>
+    <t>The room was great. I liked the suite, it was comfortable, well appointed, clean and comfortable. I have also stayed at the sister motel next door, this one is a much quieter, cleaner and more comfortable property.You will see in other reviews that promises and offers are made, then not kept. This was also my experience. On checking in I was, as a Choice Privileges Member, offered a snack or 250 bonus points. As they say, "A bird in the hand is worth two in the bush." I should have gone with the snack as the bonus points were not added to my account, just the points I earned according to the Choice Privileges program.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r355750972-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -1182,15 +1795,6 @@
     <t>Hotel was great, rooms a little on the small side but no complaints. Lexi on front desk was very helpful and helped to make our stay very enjoyable. Would come back again in a heartbeat knowing that staff are so friendly and accommodating. Unreal service!MoreShow less</t>
   </si>
   <si>
-    <t>February 2016</t>
-  </si>
-  <si>
-    <t>Chris H, Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded April 11, 2016</t>
-  </si>
-  <si>
-    <t>Responded April 11, 2016</t>
-  </si>
-  <si>
     <t>Hotel was great, rooms a little on the small side but no complaints. Lexi on front desk was very helpful and helped to make our stay very enjoyable. Would come back again in a heartbeat knowing that staff are so friendly and accommodating. Unreal service!More</t>
   </si>
   <si>
@@ -1248,6 +1852,48 @@
     <t>Not a bad place to visit, but promises by front desk staff for Premiere club points are not kept.  Also, internet sometimes sketchy.  Facility is well used, an o.k. place to stay if you are in real need.  Breakfast just above average for included breakfasts.  Beds are awesome, but everything else appears a little tattered.  Most of all, don't expect front des staff to keep promises regarding Premiere club.  Also had a difficult time gaining inteest in a longer-term stay.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r321266338-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>321266338</t>
+  </si>
+  <si>
+    <t>10/23/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impressive </t>
+  </si>
+  <si>
+    <t>I was impressed by the customer service from the moment I checked in, the room was more than I expected and was well worth it.  Rooms were quiet, didn't really hear anyone in hallway or in room next door...helped with sleeping. Would recommend this hotel to family and friends.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was impressed by the customer service from the moment I checked in, the room was more than I expected and was well worth it.  Rooms were quiet, didn't really hear anyone in hallway or in room next door...helped with sleeping. Would recommend this hotel to family and friends.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r319700891-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>319700891</t>
+  </si>
+  <si>
+    <t>10/17/2015</t>
+  </si>
+  <si>
+    <t>Good but not great.</t>
+  </si>
+  <si>
+    <t>Upon our arrival 2 out of our 3 room reservations was not ready even after 3 p.m. We were told that it was due to housekeeping staff walking off the job. After about 1 hour the other rooms were ready. My room which was 227 was clean but the toilet would not stop running after being flushed and I was able to fix that myself. Room 227 is on the west side of the property and is subject to a lot of traffic noise and also has a door to the adjoining room. Problem is the door and walls have none to very little sound insulation and I could hear the neighbors TV like I was in the same room with it.The next morning as I went to take a shower I discovered that the shower head was just hanging down into the tub. It was a handicapped accessible tub but still there was no way to hang the shower head so I had to hold the shower head with one hand and wash with the other. Had I not been staying only one night I would have requested it be fixed. Not sure why housekeeping did not make the same request.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lori J, Guest Relations Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded October 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2015</t>
+  </si>
+  <si>
+    <t>Upon our arrival 2 out of our 3 room reservations was not ready even after 3 p.m. We were told that it was due to housekeeping staff walking off the job. After about 1 hour the other rooms were ready. My room which was 227 was clean but the toilet would not stop running after being flushed and I was able to fix that myself. Room 227 is on the west side of the property and is subject to a lot of traffic noise and also has a door to the adjoining room. Problem is the door and walls have none to very little sound insulation and I could hear the neighbors TV like I was in the same room with it.The next morning as I went to take a shower I discovered that the shower head was just hanging down into the tub. It was a handicapped accessible tub but still there was no way to hang the shower head so I had to hold the shower head with one hand and wash with the other. Had I not been staying only one night I would have requested it be fixed. Not sure why housekeeping did not make the same request.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r318692014-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -1317,6 +1963,48 @@
     <t>I got a great rate because they are undergoing renovation. It wasn't really in the way for the most part. The beds were comfortable and the rooms were very large. The breakfast wasn't very good. The eggs were my real. mosppart.part. The were comfortable TheThe bedsMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r313513381-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>313513381</t>
+  </si>
+  <si>
+    <t>09/25/2015</t>
+  </si>
+  <si>
+    <t>We stayed here while visiting friends for a couple of days. We had a very spacious suite with fridge, microwave, separate sitting area and two queen size beds at a very reasonable rate. Room 105 is just across the hall from the exercise room and the pool. Although the smell of chlorine from the pool was quite strong when you are in the hall you can't smell it in your rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here while visiting friends for a couple of days. We had a very spacious suite with fridge, microwave, separate sitting area and two queen size beds at a very reasonable rate. Room 105 is just across the hall from the exercise room and the pool. Although the smell of chlorine from the pool was quite strong when you are in the hall you can't smell it in your rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r309335153-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>309335153</t>
+  </si>
+  <si>
+    <t>09/11/2015</t>
+  </si>
+  <si>
+    <t>Chris, the GM was very helpful prior to check out.</t>
+  </si>
+  <si>
+    <t>stayed two nights visiting family in the area. Staff very friendly,King room recently had been updated, very clean throughout. Even had 2 family members come over and we utilize the "living room" to chat....MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Lori J, Guest Relations Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded September 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 23, 2015</t>
+  </si>
+  <si>
+    <t>stayed two nights visiting family in the area. Staff very friendly,King room recently had been updated, very clean throughout. Even had 2 family members come over and we utilize the "living room" to chat....More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r306913614-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -1332,9 +2020,6 @@
     <t>Nice bed and complimentary breakfast, very friendly and accommodating staff. We really enjoyed our stay there, convenient location and not noisy outside even though close to highway. would definitely recommend if you need to stay close to Red Rocks.MoreShow less</t>
   </si>
   <si>
-    <t>August 2015</t>
-  </si>
-  <si>
     <t>Lori J, Guest Relations Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded September 10, 2015</t>
   </si>
   <si>
@@ -1392,6 +2077,54 @@
     <t>We had to stay here because our usual and favorite, Hampton, was booked. We liked that it is a suite, but it is older and needs updating. Our room was clean enough, but it had a funky smell when you walked in, however you got used to it after you were in there for awhile. It has two rooms. The bedroom is nice, spacious and clean with a comfortable bed and cool AC. It has a dresser, flat screen and desk. The living room has a sleeper sofa, chair, coffee table, end table, fridge, micro, sink, lavatory and closet, but oddly not a TV. It was nice just to relax in and play on your electronics and converse, however. Unfortunately, the ceiling above the tub had mold. Not attractive and gave me the willies. The 3rd floor hallway was hot and the carpet was old and dirty.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r289977002-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>289977002</t>
+  </si>
+  <si>
+    <t>07/17/2015</t>
+  </si>
+  <si>
+    <t>Stayed here 4 nights while group stayed at a university in Denver. Really nice hotel. Staff was great. Room was fantastic and have no complaints whatsoever. 2 restaurants across the street. The group that I was carrying was at the university of Denver spit only took 30 minutes to get to them during the rush hour. 15 minutes during the regular hours. Very nice place to stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Lori J, Guest Relations Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded July 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here 4 nights while group stayed at a university in Denver. Really nice hotel. Staff was great. Room was fantastic and have no complaints whatsoever. 2 restaurants across the street. The group that I was carrying was at the university of Denver spit only took 30 minutes to get to them during the rush hour. 15 minutes during the regular hours. Very nice place to stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r281480684-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>281480684</t>
+  </si>
+  <si>
+    <t>06/19/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel, not great location, didn't feel safe</t>
+  </si>
+  <si>
+    <t>Very clean, comfortable and well managed.  However, for some reason during our stay the clientele was heavily male, with small groups of men lingering behind the hotel, in the parking lot of the hotel, even in the adjacent abandoned parking lot at 10:00 at night.  My friend who visited our room with her baby asked me to escort her when she walked to her car at 7:30pm even though it was still light out since she also felt uneasy, and I felt leered at more than once during our stay...very unsettling since it was just myself and young daughter traveling together.  To top it off, you cannot close the curtains--the thick ones only cover a quarter of each far side of the window, you can't pull them closed, so when I walked by the window with the light on at 10:00pm to get into bed that's when I saw the group of men loitering in the adjacent lot, and I'm sure they saw me too.  Made different hotel arrangements for second night because I felt so uneasy.  In general, feels like a shady business district, not much around.  Maybe if they had a strong security presence it would help, since they can't help they're location and clientele.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lori J, Public Relations Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded June 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2015</t>
+  </si>
+  <si>
+    <t>Very clean, comfortable and well managed.  However, for some reason during our stay the clientele was heavily male, with small groups of men lingering behind the hotel, in the parking lot of the hotel, even in the adjacent abandoned parking lot at 10:00 at night.  My friend who visited our room with her baby asked me to escort her when she walked to her car at 7:30pm even though it was still light out since she also felt uneasy, and I felt leered at more than once during our stay...very unsettling since it was just myself and young daughter traveling together.  To top it off, you cannot close the curtains--the thick ones only cover a quarter of each far side of the window, you can't pull them closed, so when I walked by the window with the light on at 10:00pm to get into bed that's when I saw the group of men loitering in the adjacent lot, and I'm sure they saw me too.  Made different hotel arrangements for second night because I felt so uneasy.  In general, feels like a shady business district, not much around.  Maybe if they had a strong security presence it would help, since they can't help they're location and clientele.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r279991919-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -1458,6 +2191,54 @@
     <t>An emergency trip, with no time to make reservations ahead, found the Comfort Inn through Trip Advisor recommendations.  It was clean, comfortable and the staff was very accommodating and helpful in making the reservation, helping with directions and assistance while at the hotel.  I would have to give it a 5*!  I thought the room was very good for the price and the hotel clean, well presented and included all the amenities needed. I would stay there again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r272066746-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>272066746</t>
+  </si>
+  <si>
+    <t>05/14/2015</t>
+  </si>
+  <si>
+    <t>Excellent hotel 5 Stars!</t>
+  </si>
+  <si>
+    <t>The hotel staff is excellent here. The rooms are clean and newly remodeled! The hot tub and pool are nice and clean. The breakfast is outstanding. I would definitely  go back and stay there in the future!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>The hotel staff is excellent here. The rooms are clean and newly remodeled! The hot tub and pool are nice and clean. The breakfast is outstanding. I would definitely  go back and stay there in the future!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r266895103-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>266895103</t>
+  </si>
+  <si>
+    <t>04/20/2015</t>
+  </si>
+  <si>
+    <t>In need of lots of maintenance</t>
+  </si>
+  <si>
+    <t>This hotel was clean, so we decided to stay there anyway.  But everything was extremely run down and needed repairs and remodeling.  The worst thing was that the drapes would not close.  There were sheers on the window but you could definitely see through them.  That made it impossible to shut out the parking lot lights let alone people could see in.  Won't stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Lori J, Public Relations Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded April 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2015</t>
+  </si>
+  <si>
+    <t>This hotel was clean, so we decided to stay there anyway.  But everything was extremely run down and needed repairs and remodeling.  The worst thing was that the drapes would not close.  There were sheers on the window but you could definitely see through them.  That made it impossible to shut out the parking lot lights let alone people could see in.  Won't stay there again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r263258168-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -1473,15 +2254,6 @@
     <t>Very average hotel and room.    This three star hotel is a good value and I like the area.   The staff is friendly and there are many restaurants nearby.  The commute to downtown had quite a bit of traffic.MoreShow less</t>
   </si>
   <si>
-    <t>April 2015</t>
-  </si>
-  <si>
-    <t>Lori J, Public Relations Manager at Comfort Suites Lakewood Denver, responded to this reviewResponded April 22, 2015</t>
-  </si>
-  <si>
-    <t>Responded April 22, 2015</t>
-  </si>
-  <si>
     <t>Very average hotel and room.    This three star hotel is a good value and I like the area.   The staff is friendly and there are many restaurants nearby.  The commute to downtown had quite a bit of traffic.More</t>
   </si>
   <si>
@@ -1530,6 +2302,42 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r254589010-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>254589010</t>
+  </si>
+  <si>
+    <t>02/16/2015</t>
+  </si>
+  <si>
+    <t>Wish I could have stayed longer.</t>
+  </si>
+  <si>
+    <t>Loved the bedroom position in the back of the suite. Very quiet. Clean, nice, comfortable stay. Hot breakfast. Better than Holiday Inn Express. Great rates. I have family in the area and have stayed at some of the surrounding hotels with mixed results. Very happy I tried this one. Will be back.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r244584086-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>244584086</t>
+  </si>
+  <si>
+    <t>12/15/2014</t>
+  </si>
+  <si>
+    <t>Great experience!</t>
+  </si>
+  <si>
+    <t>Recently renovated, new furniture, great staff and breakfast in the morning. Pool and hot tub. Several restaurants near by and great location for downtown and southwest locations. April will definetly take great care of you!</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225457-r243929384-Comfort_Suites_Lakewood_Denver-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -1543,9 +2351,6 @@
   </si>
   <si>
     <t>Hotel was perfect, very cold/snowy day. Huge room, but didn't spend but sleep time in it. Had Hot breakfast in the morning. Clean Comfortable, and Nice staff! Perfect location, with plenty of Restaurants, and the major Mall nearby.</t>
-  </si>
-  <si>
-    <t>November 2014</t>
   </si>
 </sst>
 </file>
@@ -2088,14 +2893,14 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="n">
+      <c r="P2" t="n">
         <v>4</v>
       </c>
-      <c r="R2" t="s"/>
-      <c r="S2" t="n">
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
         <v>4</v>
       </c>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
         <v>4</v>
@@ -2147,35 +2952,31 @@
         <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
-      <c r="R3" t="n">
-        <v>1</v>
-      </c>
+      <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>1</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
@@ -2191,7 +2992,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -2200,46 +3001,46 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="O4" t="s">
-        <v>70</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="X4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="Y4" t="s">
         <v>73</v>
@@ -2279,35 +3080,35 @@
         <v>78</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="O5" t="s">
-        <v>80</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
+        <v>79</v>
+      </c>
+      <c r="X5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y5" t="s">
         <v>81</v>
-      </c>
-      <c r="X5" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="6">
@@ -2323,52 +3124,58 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
         <v>84</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>85</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>86</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" t="s">
         <v>87</v>
       </c>
-      <c r="L6" t="s">
-        <v>88</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" t="s">
-        <v>89</v>
-      </c>
-      <c r="O6" t="s">
-        <v>90</v>
-      </c>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="X6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="Y6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
@@ -2384,31 +3191,31 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" t="s">
         <v>94</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>95</v>
       </c>
-      <c r="J7" t="s">
-        <v>96</v>
-      </c>
-      <c r="K7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L7" t="s">
-        <v>98</v>
-      </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="O7" t="s">
         <v>53</v>
@@ -2423,13 +3230,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="X7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="Y7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8">
@@ -2445,52 +3252,56 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" t="s">
         <v>103</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>104</v>
       </c>
-      <c r="J8" t="s">
-        <v>105</v>
-      </c>
-      <c r="K8" t="s">
-        <v>106</v>
-      </c>
-      <c r="L8" t="s">
-        <v>107</v>
-      </c>
-      <c r="M8" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" t="s">
-        <v>99</v>
-      </c>
       <c r="O8" t="s">
-        <v>80</v>
-      </c>
-      <c r="P8" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="X8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Y8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9">
@@ -2506,52 +3317,56 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" t="s">
         <v>111</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="L9" t="s">
         <v>112</v>
-      </c>
-      <c r="J9" t="s">
-        <v>113</v>
-      </c>
-      <c r="K9" t="s">
-        <v>114</v>
-      </c>
-      <c r="L9" t="s">
-        <v>115</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
-      </c>
-      <c r="P9" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
+        <v>114</v>
+      </c>
+      <c r="X9" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y9" t="s">
         <v>116</v>
-      </c>
-      <c r="X9" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="10">
@@ -2567,58 +3382,52 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>118</v>
+      </c>
+      <c r="J10" t="s">
         <v>119</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>120</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>121</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>104</v>
+      </c>
+      <c r="O10" t="s">
         <v>122</v>
       </c>
-      <c r="L10" t="s">
-        <v>123</v>
-      </c>
-      <c r="M10" t="n">
-        <v>4</v>
-      </c>
-      <c r="N10" t="s">
-        <v>124</v>
-      </c>
-      <c r="O10" t="s">
-        <v>90</v>
-      </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="n">
-        <v>4</v>
-      </c>
-      <c r="R10" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
+        <v>123</v>
+      </c>
+      <c r="X10" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y10" t="s">
         <v>125</v>
-      </c>
-      <c r="X10" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="11">
@@ -2634,34 +3443,34 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J11" t="s">
         <v>128</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>129</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>130</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
         <v>131</v>
       </c>
-      <c r="L11" t="s">
-        <v>132</v>
-      </c>
-      <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s">
-        <v>133</v>
-      </c>
       <c r="O11" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2673,13 +3482,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
+        <v>132</v>
+      </c>
+      <c r="X11" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y11" t="s">
         <v>134</v>
-      </c>
-      <c r="X11" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="12">
@@ -2695,56 +3504,52 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>136</v>
+      </c>
+      <c r="J12" t="s">
         <v>137</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
         <v>138</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>139</v>
       </c>
-      <c r="K12" t="s">
-        <v>140</v>
-      </c>
-      <c r="L12" t="s">
-        <v>141</v>
-      </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O12" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>4</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
+        <v>140</v>
+      </c>
+      <c r="X12" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y12" t="s">
         <v>142</v>
-      </c>
-      <c r="X12" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="13">
@@ -2760,56 +3565,52 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>144</v>
+      </c>
+      <c r="J13" t="s">
         <v>145</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
+        <v>94</v>
+      </c>
+      <c r="L13" t="s">
         <v>146</v>
       </c>
-      <c r="J13" t="s">
-        <v>147</v>
-      </c>
-      <c r="K13" t="s">
-        <v>148</v>
-      </c>
-      <c r="L13" t="s">
-        <v>149</v>
-      </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>4</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="X13" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="Y13" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14">
@@ -2825,58 +3626,52 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>151</v>
+      </c>
+      <c r="J14" t="s">
+        <v>152</v>
+      </c>
+      <c r="K14" t="s">
         <v>153</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="L14" t="s">
         <v>154</v>
-      </c>
-      <c r="J14" t="s">
-        <v>155</v>
-      </c>
-      <c r="K14" t="s">
-        <v>156</v>
-      </c>
-      <c r="L14" t="s">
-        <v>157</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="O14" t="s">
-        <v>159</v>
+        <v>63</v>
       </c>
       <c r="P14" t="s"/>
-      <c r="Q14" t="n">
-        <v>4</v>
-      </c>
-      <c r="R14" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="X14" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="Y14" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15">
@@ -2892,7 +3687,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2901,22 +3696,22 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="J15" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="K15" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="L15" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="O15" t="s">
         <v>53</v>
@@ -2931,13 +3726,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="X15" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="Y15" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16">
@@ -2953,7 +3748,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2962,34 +3757,34 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="J16" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="K16" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="L16" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
       <c r="R16" t="n">
-        <v>5</v>
-      </c>
-      <c r="S16" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
         <v>5</v>
@@ -2998,13 +3793,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="X16" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="Y16" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17">
@@ -3020,7 +3815,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -3029,43 +3824,47 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="J17" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="K17" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="L17" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="X17" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="Y17" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18">
@@ -3081,7 +3880,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -3090,47 +3889,43 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="J18" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="K18" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="L18" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="O18" t="s">
         <v>53</v>
       </c>
       <c r="P18" t="s"/>
-      <c r="Q18" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>4</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="X18" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="Y18" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19">
@@ -3146,7 +3941,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -3155,45 +3950,43 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="J19" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="K19" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="L19" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="O19" t="s">
-        <v>80</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
-      <c r="S19" t="n">
-        <v>1</v>
-      </c>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>1</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>193</v>
+      </c>
+      <c r="X19" t="s">
+        <v>194</v>
+      </c>
       <c r="Y19" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20">
@@ -3209,7 +4002,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -3218,47 +4011,47 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="J20" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="K20" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="L20" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="O20" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="P20" t="s"/>
-      <c r="Q20" t="s"/>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
       <c r="R20" t="s"/>
-      <c r="S20" t="n">
-        <v>4</v>
-      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="X20" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="Y20" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21">
@@ -3274,7 +4067,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -3283,47 +4076,47 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="J21" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="K21" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L21" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="O21" t="s">
-        <v>70</v>
-      </c>
-      <c r="P21" t="s"/>
-      <c r="Q21" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="X21" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Y21" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22">
@@ -3339,7 +4132,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3348,49 +4141,43 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="J22" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="K22" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="L22" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="O22" t="s">
         <v>53</v>
       </c>
-      <c r="P22" t="n">
-        <v>5</v>
-      </c>
+      <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
+      <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="X22" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="Y22" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23">
@@ -3406,7 +4193,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3415,39 +4202,47 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="J23" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="K23" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="L23" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
-      </c>
-      <c r="N23" t="s"/>
-      <c r="O23" t="s"/>
-      <c r="P23" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>217</v>
+      </c>
+      <c r="O23" t="s">
+        <v>87</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
       <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="X23" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="Y23" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24">
@@ -3463,43 +4258,43 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
+        <v>229</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>230</v>
+      </c>
+      <c r="J24" t="s">
+        <v>231</v>
+      </c>
+      <c r="K24" t="s">
+        <v>232</v>
+      </c>
+      <c r="L24" t="s">
+        <v>233</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>217</v>
+      </c>
+      <c r="O24" t="s">
         <v>234</v>
-      </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" t="s">
-        <v>235</v>
-      </c>
-      <c r="J24" t="s">
-        <v>236</v>
-      </c>
-      <c r="K24" t="s">
-        <v>237</v>
-      </c>
-      <c r="L24" t="s">
-        <v>238</v>
-      </c>
-      <c r="M24" t="n">
-        <v>5</v>
-      </c>
-      <c r="N24" t="s">
-        <v>239</v>
-      </c>
-      <c r="O24" t="s">
-        <v>53</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
-        <v>5</v>
-      </c>
-      <c r="R24" t="s"/>
-      <c r="S24" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
         <v>5</v>
@@ -3507,10 +4302,14 @@
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>235</v>
+      </c>
+      <c r="X24" t="s">
+        <v>236</v>
+      </c>
       <c r="Y24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25">
@@ -3526,52 +4325,50 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
+        <v>238</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>239</v>
+      </c>
+      <c r="J25" t="s">
         <v>240</v>
       </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="K25" t="s">
         <v>241</v>
       </c>
-      <c r="J25" t="s">
+      <c r="L25" t="s">
         <v>242</v>
       </c>
-      <c r="K25" t="s">
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
         <v>243</v>
       </c>
-      <c r="L25" t="s">
-        <v>244</v>
-      </c>
-      <c r="M25" t="n">
-        <v>5</v>
-      </c>
-      <c r="N25" t="s">
-        <v>245</v>
-      </c>
       <c r="O25" t="s">
-        <v>80</v>
-      </c>
-      <c r="P25" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
-      <c r="R25" t="n">
-        <v>5</v>
-      </c>
+      <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>5</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>244</v>
+      </c>
+      <c r="X25" t="s">
+        <v>245</v>
+      </c>
       <c r="Y25" t="s">
         <v>246</v>
       </c>
@@ -3613,28 +4410,34 @@
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="O26" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
-      <c r="R26" t="s"/>
-      <c r="S26" t="s"/>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
       <c r="T26" t="s"/>
-      <c r="U26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
+        <v>252</v>
+      </c>
+      <c r="X26" t="s">
         <v>253</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>254</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="27">
@@ -3650,19 +4453,19 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
+        <v>255</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
         <v>256</v>
       </c>
-      <c r="G27" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" t="s">
-        <v>47</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>257</v>
-      </c>
-      <c r="J27" t="s">
-        <v>249</v>
       </c>
       <c r="K27" t="s">
         <v>258</v>
@@ -3677,31 +4480,31 @@
         <v>260</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
-      </c>
-      <c r="P27" t="s"/>
-      <c r="Q27" t="s"/>
-      <c r="R27" t="n">
-        <v>5</v>
-      </c>
-      <c r="S27" t="n">
+        <v>87</v>
+      </c>
+      <c r="P27" t="n">
         <v>4</v>
       </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="X27" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="Y27" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28">
@@ -3717,7 +4520,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3726,22 +4529,22 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="J28" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K28" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L28" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="O28" t="s">
         <v>53</v>
@@ -3756,13 +4559,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="X28" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="Y28" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29">
@@ -3778,7 +4581,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3787,22 +4590,26 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="J29" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="K29" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L29" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
-      </c>
-      <c r="N29" t="s"/>
-      <c r="O29" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>243</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
       <c r="R29" t="s"/>
@@ -3813,13 +4620,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="X29" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="Y29" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30">
@@ -3835,7 +4642,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3844,16 +4651,16 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="J30" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="K30" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="L30" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
@@ -3864,13 +4671,11 @@
       <c r="O30" t="s">
         <v>53</v>
       </c>
-      <c r="P30" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q30" t="s"/>
-      <c r="R30" t="n">
-        <v>5</v>
-      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="s"/>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
@@ -3880,13 +4685,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="X30" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="Y30" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31">
@@ -3902,7 +4707,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3911,49 +4716,45 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="J31" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="K31" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="L31" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="O31" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="P31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q31" t="s"/>
-      <c r="R31" t="n">
-        <v>5</v>
-      </c>
-      <c r="S31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s">
-        <v>286</v>
-      </c>
-      <c r="X31" t="s">
-        <v>287</v>
-      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32">
@@ -3969,7 +4770,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3978,49 +4779,47 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="J32" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="K32" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="L32" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>260</v>
+        <v>298</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
-      </c>
-      <c r="P32" t="s"/>
-      <c r="Q32" t="n">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="s"/>
       <c r="R32" t="s"/>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="X32" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Y32" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="33">
@@ -4036,7 +4835,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -4045,39 +4844,49 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
+        <v>303</v>
+      </c>
+      <c r="J33" t="s">
+        <v>304</v>
+      </c>
+      <c r="K33" t="s">
+        <v>305</v>
+      </c>
+      <c r="L33" t="s">
+        <v>306</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
         <v>298</v>
-      </c>
-      <c r="J33" t="s">
-        <v>299</v>
-      </c>
-      <c r="K33" t="s">
-        <v>300</v>
-      </c>
-      <c r="L33" t="s">
-        <v>301</v>
-      </c>
-      <c r="M33" t="n">
-        <v>3</v>
-      </c>
-      <c r="N33" t="s">
-        <v>260</v>
       </c>
       <c r="O33" t="s">
         <v>53</v>
       </c>
-      <c r="P33" t="s"/>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
       <c r="Q33" t="s"/>
-      <c r="R33" t="s"/>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
       <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>307</v>
+      </c>
+      <c r="X33" t="s">
+        <v>308</v>
+      </c>
       <c r="Y33" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34">
@@ -4093,7 +4902,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -4102,45 +4911,47 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
+        <v>311</v>
+      </c>
+      <c r="J34" t="s">
         <v>304</v>
       </c>
-      <c r="J34" t="s">
-        <v>305</v>
-      </c>
       <c r="K34" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="L34" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>260</v>
+        <v>314</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
-      </c>
-      <c r="P34" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
       <c r="R34" t="s"/>
-      <c r="S34" t="s"/>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
+      <c r="W34" t="s">
+        <v>307</v>
+      </c>
+      <c r="X34" t="s">
+        <v>308</v>
+      </c>
       <c r="Y34" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35">
@@ -4156,7 +4967,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -4165,49 +4976,47 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="J35" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="K35" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="L35" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="O35" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R35" t="s"/>
-      <c r="S35" t="n">
-        <v>3</v>
-      </c>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="X35" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="Y35" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
     </row>
     <row r="36">
@@ -4223,7 +5032,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4232,32 +5041,34 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="J36" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="K36" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="L36" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="O36" t="s">
         <v>53</v>
       </c>
-      <c r="P36" t="s"/>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
       <c r="Q36" t="s"/>
-      <c r="R36" t="s"/>
-      <c r="S36" t="n">
-        <v>5</v>
-      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
         <v>5</v>
@@ -4266,13 +5077,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="X36" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Y36" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="37">
@@ -4288,7 +5099,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4297,49 +5108,49 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="J37" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="K37" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="L37" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="O37" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="P37" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q37" t="s"/>
-      <c r="R37" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="s"/>
       <c r="S37" t="s"/>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="X37" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Y37" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="38">
@@ -4355,7 +5166,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4364,26 +5175,22 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="J38" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="K38" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="L38" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
-      <c r="N38" t="s">
-        <v>331</v>
-      </c>
-      <c r="O38" t="s">
-        <v>80</v>
-      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
       <c r="R38" t="s"/>
@@ -4393,10 +5200,14 @@
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
+      <c r="W38" t="s">
+        <v>335</v>
+      </c>
+      <c r="X38" t="s">
+        <v>336</v>
+      </c>
       <c r="Y38" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="39">
@@ -4412,7 +5223,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4421,43 +5232,39 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="J39" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="K39" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="L39" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="M39" t="n">
-        <v>3</v>
-      </c>
-      <c r="N39" t="s">
-        <v>331</v>
-      </c>
-      <c r="O39" t="s">
-        <v>159</v>
-      </c>
-      <c r="P39" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
       <c r="R39" t="s"/>
       <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>2</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
+      <c r="W39" t="s">
+        <v>349</v>
+      </c>
+      <c r="X39" t="s">
+        <v>350</v>
+      </c>
       <c r="Y39" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
     </row>
     <row r="40">
@@ -4473,7 +5280,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4482,34 +5289,34 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="J40" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="K40" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="L40" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="O40" t="s">
         <v>53</v>
       </c>
-      <c r="P40" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q40" t="s"/>
-      <c r="R40" t="n">
-        <v>5</v>
-      </c>
-      <c r="S40" t="s"/>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
         <v>5</v>
@@ -4517,14 +5324,10 @@
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s">
-        <v>351</v>
-      </c>
-      <c r="X40" t="s">
-        <v>352</v>
-      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="41">
@@ -4540,7 +5343,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4549,30 +5352,30 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="J41" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="K41" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="L41" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>322</v>
+        <v>363</v>
       </c>
       <c r="O41" t="s">
-        <v>90</v>
-      </c>
-      <c r="P41" t="s"/>
-      <c r="Q41" t="n">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="s"/>
       <c r="R41" t="n">
         <v>5</v>
       </c>
@@ -4584,14 +5387,10 @@
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s">
-        <v>359</v>
-      </c>
-      <c r="X41" t="s">
-        <v>360</v>
-      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="42">
@@ -4607,7 +5406,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4616,33 +5415,31 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="J42" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K42" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="L42" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="O42" t="s">
-        <v>90</v>
+        <v>234</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="n">
         <v>5</v>
       </c>
-      <c r="R42" t="n">
-        <v>5</v>
-      </c>
+      <c r="R42" t="s"/>
       <c r="S42" t="s"/>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
@@ -4651,14 +5448,10 @@
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s">
-        <v>368</v>
-      </c>
-      <c r="X42" t="s">
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
         <v>369</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="43">
@@ -4686,46 +5479,40 @@
         <v>372</v>
       </c>
       <c r="J43" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="K43" t="s">
-        <v>373</v>
+        <v>199</v>
       </c>
       <c r="L43" t="s">
         <v>374</v>
       </c>
       <c r="M43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="O43" t="s">
-        <v>159</v>
+        <v>63</v>
       </c>
       <c r="P43" t="s"/>
-      <c r="Q43" t="n">
-        <v>5</v>
-      </c>
-      <c r="R43" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
       <c r="S43" t="s"/>
       <c r="T43" t="s"/>
-      <c r="U43" t="n">
-        <v>5</v>
-      </c>
+      <c r="U43" t="s"/>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>351</v>
+        <v>375</v>
       </c>
       <c r="X43" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="Y43" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="44">
@@ -4741,7 +5528,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4750,49 +5537,43 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="J44" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K44" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L44" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="O44" t="s">
-        <v>159</v>
-      </c>
-      <c r="P44" t="n">
-        <v>4</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
-      <c r="R44" t="n">
-        <v>4</v>
-      </c>
+      <c r="R44" t="s"/>
       <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="n">
-        <v>5</v>
-      </c>
+      <c r="U44" t="s"/>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s">
+        <v>375</v>
+      </c>
+      <c r="X44" t="s">
+        <v>376</v>
+      </c>
+      <c r="Y44" t="s">
         <v>383</v>
-      </c>
-      <c r="X44" t="s">
-        <v>384</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="45">
@@ -4808,56 +5589,58 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
+        <v>384</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>385</v>
+      </c>
+      <c r="J45" t="s">
+        <v>380</v>
+      </c>
+      <c r="K45" t="s">
         <v>386</v>
       </c>
-      <c r="G45" t="s">
-        <v>46</v>
-      </c>
-      <c r="H45" t="s">
-        <v>47</v>
-      </c>
-      <c r="I45" t="s">
+      <c r="L45" t="s">
         <v>387</v>
       </c>
-      <c r="J45" t="s">
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
         <v>388</v>
-      </c>
-      <c r="K45" t="s">
-        <v>389</v>
-      </c>
-      <c r="L45" t="s">
-        <v>390</v>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="s">
-        <v>391</v>
       </c>
       <c r="O45" t="s">
         <v>53</v>
       </c>
-      <c r="P45" t="n">
-        <v>1</v>
-      </c>
+      <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
-      <c r="R45" t="s"/>
-      <c r="S45" t="s"/>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="X45" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="Y45" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="46">
@@ -4873,58 +5656,52 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
+        <v>390</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>391</v>
+      </c>
+      <c r="J46" t="s">
+        <v>392</v>
+      </c>
+      <c r="K46" t="s">
+        <v>393</v>
+      </c>
+      <c r="L46" t="s">
+        <v>394</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
         <v>395</v>
       </c>
-      <c r="G46" t="s">
-        <v>46</v>
-      </c>
-      <c r="H46" t="s">
-        <v>47</v>
-      </c>
-      <c r="I46" t="s">
-        <v>396</v>
-      </c>
-      <c r="J46" t="s">
-        <v>397</v>
-      </c>
-      <c r="K46" t="s">
-        <v>398</v>
-      </c>
-      <c r="L46" t="s">
-        <v>399</v>
-      </c>
-      <c r="M46" t="n">
-        <v>2</v>
-      </c>
-      <c r="N46" t="s">
-        <v>400</v>
-      </c>
       <c r="O46" t="s">
-        <v>90</v>
-      </c>
-      <c r="P46" t="n">
-        <v>2</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
       <c r="R46" t="s"/>
-      <c r="S46" t="n">
-        <v>3</v>
-      </c>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
-      <c r="U46" t="n">
-        <v>3</v>
-      </c>
+      <c r="U46" t="s"/>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>401</v>
+        <v>375</v>
       </c>
       <c r="X46" t="s">
-        <v>402</v>
+        <v>376</v>
       </c>
       <c r="Y46" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
     </row>
     <row r="47">
@@ -4940,7 +5717,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4949,47 +5726,49 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="J47" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="K47" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="L47" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="M47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>234</v>
       </c>
       <c r="P47" t="s"/>
-      <c r="Q47" t="s"/>
-      <c r="R47" t="n">
-        <v>3</v>
-      </c>
-      <c r="S47" t="s"/>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>409</v>
+        <v>375</v>
       </c>
       <c r="X47" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="Y47" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
     </row>
     <row r="48">
@@ -5005,7 +5784,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -5014,47 +5793,49 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="J48" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="K48" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="L48" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="M48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>400</v>
+        <v>370</v>
       </c>
       <c r="O48" t="s">
-        <v>80</v>
-      </c>
-      <c r="P48" t="s"/>
+        <v>234</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
       <c r="Q48" t="s"/>
-      <c r="R48" t="n">
-        <v>5</v>
-      </c>
-      <c r="S48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>417</v>
+        <v>375</v>
       </c>
       <c r="X48" t="s">
-        <v>418</v>
+        <v>376</v>
       </c>
       <c r="Y48" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
     </row>
     <row r="49">
@@ -5070,7 +5851,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -5079,26 +5860,22 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="J49" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="K49" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="L49" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="M49" t="n">
-        <v>4</v>
-      </c>
-      <c r="N49" t="s">
-        <v>425</v>
-      </c>
-      <c r="O49" t="s">
-        <v>80</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
       <c r="R49" t="s"/>
@@ -5109,13 +5886,13 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>417</v>
+        <v>375</v>
       </c>
       <c r="X49" t="s">
-        <v>418</v>
+        <v>376</v>
       </c>
       <c r="Y49" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="50">
@@ -5131,7 +5908,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -5140,47 +5917,49 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="J50" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="K50" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="L50" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="M50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>432</v>
+        <v>388</v>
       </c>
       <c r="O50" t="s">
-        <v>80</v>
-      </c>
-      <c r="P50" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
       <c r="Q50" t="s"/>
-      <c r="R50" t="s"/>
-      <c r="S50" t="n">
-        <v>5</v>
-      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="s"/>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>433</v>
+        <v>375</v>
       </c>
       <c r="X50" t="s">
-        <v>434</v>
+        <v>376</v>
       </c>
       <c r="Y50" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
     </row>
     <row r="51">
@@ -5196,7 +5975,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5205,45 +5984,49 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="J51" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="K51" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="L51" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="M51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="O51" t="s">
-        <v>80</v>
-      </c>
-      <c r="P51" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
       <c r="Q51" t="s"/>
-      <c r="R51" t="s"/>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
       <c r="S51" t="s"/>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="X51" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="Y51" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
     </row>
     <row r="52">
@@ -5259,7 +6042,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5268,25 +6051,25 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="J52" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="K52" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="L52" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="M52" t="n">
         <v>3</v>
       </c>
       <c r="N52" t="s">
-        <v>432</v>
+        <v>388</v>
       </c>
       <c r="O52" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -5298,13 +6081,13 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="X52" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="Y52" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
     </row>
     <row r="53">
@@ -5320,7 +6103,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5329,49 +6112,43 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="J53" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="K53" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="L53" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="O53" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
-      <c r="R53" t="n">
-        <v>5</v>
-      </c>
-      <c r="S53" t="n">
-        <v>5</v>
-      </c>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
       <c r="T53" t="s"/>
-      <c r="U53" t="n">
-        <v>5</v>
-      </c>
+      <c r="U53" t="s"/>
       <c r="V53" t="n">
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>457</v>
+        <v>426</v>
       </c>
       <c r="X53" t="s">
-        <v>458</v>
+        <v>427</v>
       </c>
       <c r="Y53" t="s">
-        <v>459</v>
+        <v>440</v>
       </c>
     </row>
     <row r="54">
@@ -5387,7 +6164,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5396,43 +6173,49 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="J54" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="K54" t="s">
-        <v>463</v>
+        <v>444</v>
       </c>
       <c r="L54" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="O54" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="P54" t="s"/>
-      <c r="Q54" t="s"/>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
       <c r="R54" t="s"/>
-      <c r="S54" t="s"/>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
       <c r="T54" t="s"/>
-      <c r="U54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>465</v>
+        <v>446</v>
       </c>
       <c r="X54" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="Y54" t="s">
-        <v>467</v>
+        <v>448</v>
       </c>
     </row>
     <row r="55">
@@ -5448,7 +6231,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>468</v>
+        <v>449</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5457,47 +6240,39 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>469</v>
+        <v>450</v>
       </c>
       <c r="J55" t="s">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="K55" t="s">
-        <v>471</v>
+        <v>452</v>
       </c>
       <c r="L55" t="s">
-        <v>472</v>
+        <v>453</v>
       </c>
       <c r="M55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="O55" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
       <c r="R55" t="s"/>
-      <c r="S55" t="n">
-        <v>5</v>
-      </c>
+      <c r="S55" t="s"/>
       <c r="T55" t="s"/>
-      <c r="U55" t="n">
-        <v>5</v>
-      </c>
+      <c r="U55" t="s"/>
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s">
-        <v>465</v>
-      </c>
-      <c r="X55" t="s">
-        <v>466</v>
-      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>473</v>
+        <v>454</v>
       </c>
     </row>
     <row r="56">
@@ -5513,7 +6288,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>474</v>
+        <v>455</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5522,43 +6297,45 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="J56" t="s">
-        <v>476</v>
+        <v>457</v>
       </c>
       <c r="K56" t="s">
-        <v>477</v>
+        <v>458</v>
       </c>
       <c r="L56" t="s">
-        <v>478</v>
+        <v>459</v>
       </c>
       <c r="M56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>479</v>
+        <v>388</v>
       </c>
       <c r="O56" t="s">
-        <v>90</v>
-      </c>
-      <c r="P56" t="s"/>
-      <c r="Q56" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
       <c r="R56" t="s"/>
       <c r="S56" t="s"/>
       <c r="T56" t="s"/>
-      <c r="U56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s">
-        <v>480</v>
-      </c>
-      <c r="X56" t="s">
-        <v>481</v>
-      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>482</v>
+        <v>459</v>
       </c>
     </row>
     <row r="57">
@@ -5574,7 +6351,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>483</v>
+        <v>460</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5583,49 +6360,35 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>484</v>
+        <v>461</v>
       </c>
       <c r="J57" t="s">
-        <v>485</v>
+        <v>462</v>
       </c>
       <c r="K57" t="s">
-        <v>486</v>
+        <v>463</v>
       </c>
       <c r="L57" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
       <c r="M57" t="n">
-        <v>4</v>
-      </c>
-      <c r="N57" t="s">
-        <v>488</v>
-      </c>
-      <c r="O57" t="s">
-        <v>70</v>
-      </c>
-      <c r="P57" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
       <c r="R57" t="s"/>
       <c r="S57" t="s"/>
       <c r="T57" t="s"/>
-      <c r="U57" t="n">
-        <v>5</v>
-      </c>
+      <c r="U57" t="s"/>
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s">
-        <v>489</v>
-      </c>
-      <c r="X57" t="s">
-        <v>490</v>
-      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>491</v>
+        <v>464</v>
       </c>
     </row>
     <row r="58">
@@ -5641,7 +6404,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>492</v>
+        <v>465</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5650,32 +6413,32 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>493</v>
+        <v>466</v>
       </c>
       <c r="J58" t="s">
-        <v>494</v>
+        <v>467</v>
       </c>
       <c r="K58" t="s">
-        <v>495</v>
+        <v>468</v>
       </c>
       <c r="L58" t="s">
-        <v>496</v>
+        <v>469</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>497</v>
+        <v>470</v>
       </c>
       <c r="O58" t="s">
-        <v>80</v>
-      </c>
-      <c r="P58" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q58" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
       <c r="R58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S58" t="s"/>
       <c r="T58" t="s"/>
@@ -5685,10 +6448,14 @@
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s"/>
-      <c r="X58" t="s"/>
+      <c r="W58" t="s">
+        <v>471</v>
+      </c>
+      <c r="X58" t="s">
+        <v>472</v>
+      </c>
       <c r="Y58" t="s">
-        <v>496</v>
+        <v>473</v>
       </c>
     </row>
     <row r="59">
@@ -5704,7 +6471,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>498</v>
+        <v>474</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -5713,43 +6480,2617 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>499</v>
+        <v>475</v>
       </c>
       <c r="J59" t="s">
-        <v>500</v>
+        <v>476</v>
       </c>
       <c r="K59" t="s">
-        <v>501</v>
+        <v>477</v>
       </c>
       <c r="L59" t="s">
-        <v>502</v>
+        <v>478</v>
       </c>
       <c r="M59" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N59" t="s">
-        <v>503</v>
+        <v>479</v>
       </c>
       <c r="O59" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="P59" t="s"/>
-      <c r="Q59" t="s"/>
+      <c r="Q59" t="n">
+        <v>1</v>
+      </c>
       <c r="R59" t="s"/>
       <c r="S59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>480</v>
+      </c>
+      <c r="X59" t="s">
+        <v>481</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>483</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>484</v>
+      </c>
+      <c r="J60" t="s">
+        <v>485</v>
+      </c>
+      <c r="K60" t="s">
+        <v>486</v>
+      </c>
+      <c r="L60" t="s">
+        <v>487</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>488</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>489</v>
+      </c>
+      <c r="X60" t="s">
+        <v>490</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>492</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>493</v>
+      </c>
+      <c r="J61" t="s">
+        <v>494</v>
+      </c>
+      <c r="K61" t="s">
+        <v>495</v>
+      </c>
+      <c r="L61" t="s">
+        <v>496</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>497</v>
+      </c>
+      <c r="O61" t="s">
+        <v>87</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>498</v>
+      </c>
+      <c r="X61" t="s">
+        <v>499</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>501</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>502</v>
+      </c>
+      <c r="J62" t="s">
+        <v>503</v>
+      </c>
+      <c r="K62" t="s">
+        <v>504</v>
+      </c>
+      <c r="L62" t="s">
+        <v>505</v>
+      </c>
+      <c r="M62" t="n">
         <v>4</v>
       </c>
-      <c r="V59" t="n">
-        <v>0</v>
-      </c>
-      <c r="W59" t="s"/>
-      <c r="X59" t="s"/>
-      <c r="Y59" t="s">
-        <v>502</v>
+      <c r="N62" t="s">
+        <v>479</v>
+      </c>
+      <c r="O62" t="s">
+        <v>63</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>506</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>507</v>
+      </c>
+      <c r="J63" t="s">
+        <v>508</v>
+      </c>
+      <c r="K63" t="s">
+        <v>509</v>
+      </c>
+      <c r="L63" t="s">
+        <v>510</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>497</v>
+      </c>
+      <c r="O63" t="s">
+        <v>122</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>511</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>512</v>
+      </c>
+      <c r="J64" t="s">
+        <v>513</v>
+      </c>
+      <c r="K64" t="s">
+        <v>514</v>
+      </c>
+      <c r="L64" t="s">
+        <v>515</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>497</v>
+      </c>
+      <c r="O64" t="s">
+        <v>63</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>516</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>517</v>
+      </c>
+      <c r="J65" t="s">
+        <v>518</v>
+      </c>
+      <c r="K65" t="s">
+        <v>519</v>
+      </c>
+      <c r="L65" t="s">
+        <v>520</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>497</v>
+      </c>
+      <c r="O65" t="s">
+        <v>234</v>
+      </c>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>2</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>522</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>523</v>
+      </c>
+      <c r="J66" t="s">
+        <v>524</v>
+      </c>
+      <c r="K66" t="s">
+        <v>525</v>
+      </c>
+      <c r="L66" t="s">
+        <v>526</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>488</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>527</v>
+      </c>
+      <c r="X66" t="s">
+        <v>528</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>530</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>531</v>
+      </c>
+      <c r="J67" t="s">
+        <v>532</v>
+      </c>
+      <c r="K67" t="s">
+        <v>533</v>
+      </c>
+      <c r="L67" t="s">
+        <v>534</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>488</v>
+      </c>
+      <c r="O67" t="s">
+        <v>122</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>3</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>527</v>
+      </c>
+      <c r="X67" t="s">
+        <v>528</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>536</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>537</v>
+      </c>
+      <c r="J68" t="s">
+        <v>538</v>
+      </c>
+      <c r="K68" t="s">
+        <v>539</v>
+      </c>
+      <c r="L68" t="s">
+        <v>540</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>488</v>
+      </c>
+      <c r="O68" t="s">
+        <v>122</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>527</v>
+      </c>
+      <c r="X68" t="s">
+        <v>528</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>542</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>543</v>
+      </c>
+      <c r="J69" t="s">
+        <v>544</v>
+      </c>
+      <c r="K69" t="s">
+        <v>545</v>
+      </c>
+      <c r="L69" t="s">
+        <v>546</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>488</v>
+      </c>
+      <c r="O69" t="s">
+        <v>122</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>547</v>
+      </c>
+      <c r="X69" t="s">
+        <v>548</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>550</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>551</v>
+      </c>
+      <c r="J70" t="s">
+        <v>552</v>
+      </c>
+      <c r="K70" t="s">
+        <v>553</v>
+      </c>
+      <c r="L70" t="s">
+        <v>554</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>555</v>
+      </c>
+      <c r="O70" t="s">
+        <v>122</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>556</v>
+      </c>
+      <c r="X70" t="s">
+        <v>557</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>559</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>560</v>
+      </c>
+      <c r="J71" t="s">
+        <v>552</v>
+      </c>
+      <c r="K71" t="s">
+        <v>561</v>
+      </c>
+      <c r="L71" t="s">
+        <v>562</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>563</v>
+      </c>
+      <c r="O71" t="s">
+        <v>234</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>527</v>
+      </c>
+      <c r="X71" t="s">
+        <v>528</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>565</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>566</v>
+      </c>
+      <c r="J72" t="s">
+        <v>552</v>
+      </c>
+      <c r="K72" t="s">
+        <v>567</v>
+      </c>
+      <c r="L72" t="s">
+        <v>568</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>563</v>
+      </c>
+      <c r="O72" t="s">
+        <v>122</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="s"/>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>527</v>
+      </c>
+      <c r="X72" t="s">
+        <v>528</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>570</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>571</v>
+      </c>
+      <c r="J73" t="s">
+        <v>572</v>
+      </c>
+      <c r="K73" t="s">
+        <v>573</v>
+      </c>
+      <c r="L73" t="s">
+        <v>574</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>488</v>
+      </c>
+      <c r="O73" t="s">
+        <v>122</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>2</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>575</v>
+      </c>
+      <c r="X73" t="s">
+        <v>576</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>578</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>579</v>
+      </c>
+      <c r="J74" t="s">
+        <v>580</v>
+      </c>
+      <c r="K74" t="s">
+        <v>581</v>
+      </c>
+      <c r="L74" t="s">
+        <v>582</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>470</v>
+      </c>
+      <c r="O74" t="s">
+        <v>234</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>575</v>
+      </c>
+      <c r="X74" t="s">
+        <v>576</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>584</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>585</v>
+      </c>
+      <c r="J75" t="s">
+        <v>586</v>
+      </c>
+      <c r="K75" t="s">
+        <v>587</v>
+      </c>
+      <c r="L75" t="s">
+        <v>588</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="s">
+        <v>589</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>1</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>590</v>
+      </c>
+      <c r="X75" t="s">
+        <v>591</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>593</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>594</v>
+      </c>
+      <c r="J76" t="s">
+        <v>595</v>
+      </c>
+      <c r="K76" t="s">
+        <v>596</v>
+      </c>
+      <c r="L76" t="s">
+        <v>597</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2</v>
+      </c>
+      <c r="N76" t="s">
+        <v>598</v>
+      </c>
+      <c r="O76" t="s">
+        <v>122</v>
+      </c>
+      <c r="P76" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="n">
+        <v>3</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>3</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>599</v>
+      </c>
+      <c r="X76" t="s">
+        <v>600</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>602</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>603</v>
+      </c>
+      <c r="J77" t="s">
+        <v>604</v>
+      </c>
+      <c r="K77" t="s">
+        <v>605</v>
+      </c>
+      <c r="L77" t="s">
+        <v>606</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>598</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="s"/>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>599</v>
+      </c>
+      <c r="X77" t="s">
+        <v>600</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>608</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>609</v>
+      </c>
+      <c r="J78" t="s">
+        <v>610</v>
+      </c>
+      <c r="K78" t="s">
+        <v>611</v>
+      </c>
+      <c r="L78" t="s">
+        <v>612</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s">
+        <v>598</v>
+      </c>
+      <c r="O78" t="s">
+        <v>87</v>
+      </c>
+      <c r="P78" t="s"/>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>3</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>613</v>
+      </c>
+      <c r="X78" t="s">
+        <v>614</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>616</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>617</v>
+      </c>
+      <c r="J79" t="s">
+        <v>618</v>
+      </c>
+      <c r="K79" t="s">
+        <v>619</v>
+      </c>
+      <c r="L79" t="s">
+        <v>620</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>598</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>621</v>
+      </c>
+      <c r="X79" t="s">
+        <v>622</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>624</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>625</v>
+      </c>
+      <c r="J80" t="s">
+        <v>626</v>
+      </c>
+      <c r="K80" t="s">
+        <v>627</v>
+      </c>
+      <c r="L80" t="s">
+        <v>628</v>
+      </c>
+      <c r="M80" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" t="s">
+        <v>598</v>
+      </c>
+      <c r="O80" t="s">
+        <v>63</v>
+      </c>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>2</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>629</v>
+      </c>
+      <c r="X80" t="s">
+        <v>630</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>632</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>633</v>
+      </c>
+      <c r="J81" t="s">
+        <v>634</v>
+      </c>
+      <c r="K81" t="s">
+        <v>635</v>
+      </c>
+      <c r="L81" t="s">
+        <v>636</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>637</v>
+      </c>
+      <c r="O81" t="s">
+        <v>63</v>
+      </c>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="s"/>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>629</v>
+      </c>
+      <c r="X81" t="s">
+        <v>630</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>639</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>640</v>
+      </c>
+      <c r="J82" t="s">
+        <v>641</v>
+      </c>
+      <c r="K82" t="s">
+        <v>60</v>
+      </c>
+      <c r="L82" t="s">
+        <v>642</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>637</v>
+      </c>
+      <c r="O82" t="s">
+        <v>63</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="s"/>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>629</v>
+      </c>
+      <c r="X82" t="s">
+        <v>630</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>644</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>645</v>
+      </c>
+      <c r="J83" t="s">
+        <v>646</v>
+      </c>
+      <c r="K83" t="s">
+        <v>647</v>
+      </c>
+      <c r="L83" t="s">
+        <v>648</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>649</v>
+      </c>
+      <c r="O83" t="s">
+        <v>63</v>
+      </c>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>650</v>
+      </c>
+      <c r="X83" t="s">
+        <v>651</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>653</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>654</v>
+      </c>
+      <c r="J84" t="s">
+        <v>655</v>
+      </c>
+      <c r="K84" t="s">
+        <v>656</v>
+      </c>
+      <c r="L84" t="s">
+        <v>657</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>649</v>
+      </c>
+      <c r="O84" t="s">
+        <v>63</v>
+      </c>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>658</v>
+      </c>
+      <c r="X84" t="s">
+        <v>659</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>661</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>662</v>
+      </c>
+      <c r="J85" t="s">
+        <v>663</v>
+      </c>
+      <c r="K85" t="s">
+        <v>664</v>
+      </c>
+      <c r="L85" t="s">
+        <v>665</v>
+      </c>
+      <c r="M85" t="n">
+        <v>2</v>
+      </c>
+      <c r="N85" t="s">
+        <v>649</v>
+      </c>
+      <c r="O85" t="s">
+        <v>63</v>
+      </c>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>3</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>666</v>
+      </c>
+      <c r="X85" t="s">
+        <v>667</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>669</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>670</v>
+      </c>
+      <c r="J86" t="s">
+        <v>671</v>
+      </c>
+      <c r="K86" t="s">
+        <v>672</v>
+      </c>
+      <c r="L86" t="s">
+        <v>673</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="s">
+        <v>649</v>
+      </c>
+      <c r="O86" t="s">
+        <v>63</v>
+      </c>
+      <c r="P86" t="s"/>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="s"/>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>674</v>
+      </c>
+      <c r="X86" t="s">
+        <v>675</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>677</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>678</v>
+      </c>
+      <c r="J87" t="s">
+        <v>679</v>
+      </c>
+      <c r="K87" t="s">
+        <v>438</v>
+      </c>
+      <c r="L87" t="s">
+        <v>680</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>681</v>
+      </c>
+      <c r="O87" t="s">
+        <v>122</v>
+      </c>
+      <c r="P87" t="s"/>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="s"/>
+      <c r="S87" t="s"/>
+      <c r="T87" t="s"/>
+      <c r="U87" t="s"/>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>682</v>
+      </c>
+      <c r="X87" t="s">
+        <v>683</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>685</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>686</v>
+      </c>
+      <c r="J88" t="s">
+        <v>687</v>
+      </c>
+      <c r="K88" t="s">
+        <v>688</v>
+      </c>
+      <c r="L88" t="s">
+        <v>689</v>
+      </c>
+      <c r="M88" t="n">
+        <v>2</v>
+      </c>
+      <c r="N88" t="s">
+        <v>555</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="s"/>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>690</v>
+      </c>
+      <c r="X88" t="s">
+        <v>691</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>693</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>694</v>
+      </c>
+      <c r="J89" t="s">
+        <v>695</v>
+      </c>
+      <c r="K89" t="s">
+        <v>696</v>
+      </c>
+      <c r="L89" t="s">
+        <v>697</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>589</v>
+      </c>
+      <c r="O89" t="s">
+        <v>63</v>
+      </c>
+      <c r="P89" t="s"/>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>698</v>
+      </c>
+      <c r="X89" t="s">
+        <v>699</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>701</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>702</v>
+      </c>
+      <c r="J90" t="s">
+        <v>703</v>
+      </c>
+      <c r="K90" t="s">
+        <v>704</v>
+      </c>
+      <c r="L90" t="s">
+        <v>705</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>589</v>
+      </c>
+      <c r="O90" t="s">
+        <v>63</v>
+      </c>
+      <c r="P90" t="s"/>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="s"/>
+      <c r="S90" t="s"/>
+      <c r="T90" t="s"/>
+      <c r="U90" t="s"/>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>706</v>
+      </c>
+      <c r="X90" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>709</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>710</v>
+      </c>
+      <c r="J91" t="s">
+        <v>711</v>
+      </c>
+      <c r="K91" t="s">
+        <v>712</v>
+      </c>
+      <c r="L91" t="s">
+        <v>713</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>589</v>
+      </c>
+      <c r="O91" t="s">
+        <v>63</v>
+      </c>
+      <c r="P91" t="s"/>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>706</v>
+      </c>
+      <c r="X91" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>715</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>716</v>
+      </c>
+      <c r="J92" t="s">
+        <v>717</v>
+      </c>
+      <c r="K92" t="s">
+        <v>718</v>
+      </c>
+      <c r="L92" t="s">
+        <v>719</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>720</v>
+      </c>
+      <c r="O92" t="s">
+        <v>53</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="s"/>
+      <c r="S92" t="s"/>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>706</v>
+      </c>
+      <c r="X92" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>722</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>723</v>
+      </c>
+      <c r="J93" t="s">
+        <v>724</v>
+      </c>
+      <c r="K93" t="s">
+        <v>725</v>
+      </c>
+      <c r="L93" t="s">
+        <v>726</v>
+      </c>
+      <c r="M93" t="n">
+        <v>2</v>
+      </c>
+      <c r="N93" t="s">
+        <v>727</v>
+      </c>
+      <c r="O93" t="s">
+        <v>53</v>
+      </c>
+      <c r="P93" t="s"/>
+      <c r="Q93" t="s"/>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>2</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>2</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>728</v>
+      </c>
+      <c r="X93" t="s">
+        <v>729</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>731</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>732</v>
+      </c>
+      <c r="J94" t="s">
+        <v>733</v>
+      </c>
+      <c r="K94" t="s">
+        <v>734</v>
+      </c>
+      <c r="L94" t="s">
+        <v>735</v>
+      </c>
+      <c r="M94" t="n">
+        <v>3</v>
+      </c>
+      <c r="N94" t="s">
+        <v>727</v>
+      </c>
+      <c r="O94" t="s">
+        <v>122</v>
+      </c>
+      <c r="P94" t="s"/>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="s"/>
+      <c r="S94" t="s"/>
+      <c r="T94" t="s"/>
+      <c r="U94" t="s"/>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>728</v>
+      </c>
+      <c r="X94" t="s">
+        <v>729</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>737</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>738</v>
+      </c>
+      <c r="J95" t="s">
+        <v>739</v>
+      </c>
+      <c r="K95" t="s">
+        <v>740</v>
+      </c>
+      <c r="L95" t="s">
+        <v>741</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s">
+        <v>742</v>
+      </c>
+      <c r="O95" t="s">
+        <v>87</v>
+      </c>
+      <c r="P95" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="s"/>
+      <c r="S95" t="s"/>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>743</v>
+      </c>
+      <c r="X95" t="s">
+        <v>744</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>746</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>747</v>
+      </c>
+      <c r="J96" t="s">
+        <v>748</v>
+      </c>
+      <c r="K96" t="s">
+        <v>749</v>
+      </c>
+      <c r="L96" t="s">
+        <v>750</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>751</v>
+      </c>
+      <c r="O96" t="s">
+        <v>63</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="s"/>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="s"/>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>4</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>752</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>753</v>
+      </c>
+      <c r="J97" t="s">
+        <v>754</v>
+      </c>
+      <c r="K97" t="s">
+        <v>755</v>
+      </c>
+      <c r="L97" t="s">
+        <v>756</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>757</v>
+      </c>
+      <c r="O97" t="s">
+        <v>53</v>
+      </c>
+      <c r="P97" t="s"/>
+      <c r="Q97" t="s"/>
+      <c r="R97" t="s"/>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>758</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>759</v>
+      </c>
+      <c r="J98" t="s">
+        <v>760</v>
+      </c>
+      <c r="K98" t="s">
+        <v>761</v>
+      </c>
+      <c r="L98" t="s">
+        <v>762</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>763</v>
+      </c>
+      <c r="O98" t="s">
+        <v>122</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="s"/>
+      <c r="R98" t="s"/>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>37052</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>764</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>765</v>
+      </c>
+      <c r="J99" t="s">
+        <v>766</v>
+      </c>
+      <c r="K99" t="s">
+        <v>767</v>
+      </c>
+      <c r="L99" t="s">
+        <v>768</v>
+      </c>
+      <c r="M99" t="n">
+        <v>4</v>
+      </c>
+      <c r="N99" t="s">
+        <v>763</v>
+      </c>
+      <c r="O99" t="s">
+        <v>122</v>
+      </c>
+      <c r="P99" t="s"/>
+      <c r="Q99" t="s"/>
+      <c r="R99" t="s"/>
+      <c r="S99" t="n">
+        <v>4</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>4</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>768</v>
       </c>
     </row>
   </sheetData>
